--- a/eco.xlsx
+++ b/eco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dante\Desktop\matlab_service_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A58C4E0-7DD6-454D-B819-7D544E38F09D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD767559-6A3C-4CF1-B9AD-4464BE848B78}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{74E22F7A-001F-4641-B104-56132BF408EC}"/>
   </bookViews>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2876A863-43C8-4218-9B12-44730E103D8B}">
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="O78" sqref="O78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,28 +484,28 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>0.81480380466745572</v>
+        <v>0.80628852443659049</v>
       </c>
       <c r="F2">
-        <v>41.241763330768244</v>
+        <v>54.665907010528734</v>
       </c>
       <c r="G2">
-        <v>90.836937559472204</v>
+        <v>105.76320779160827</v>
       </c>
       <c r="H2">
-        <v>3.8682851526742179</v>
+        <v>4.9625028916239255</v>
       </c>
       <c r="I2">
-        <v>8.5200813082973443</v>
+        <v>9.601052158380746</v>
       </c>
       <c r="J2">
-        <v>4.9287283531461508E-2</v>
+        <v>4.7306666747743822E-2</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="L2" s="1">
-        <v>145471410.05874646</v>
+        <v>148039709.63191205</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -522,28 +522,28 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>0.7977261059941384</v>
+        <v>0.84540905238045161</v>
       </c>
       <c r="F3">
-        <v>53.139240625402799</v>
+        <v>55.133877124565508</v>
       </c>
       <c r="G3">
-        <v>102.82126591956325</v>
+        <v>107.41570346158208</v>
       </c>
       <c r="H3">
-        <v>4.8656318384290547</v>
+        <v>5.0397831539218698</v>
       </c>
       <c r="I3">
-        <v>9.4147078362020711</v>
+        <v>9.8188605809320677</v>
       </c>
       <c r="J3">
-        <v>4.816907653934778E-2</v>
+        <v>4.8510684014602908E-2</v>
       </c>
       <c r="K3">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1">
-        <v>147785702.53195795</v>
+        <v>148261760.4364709</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -560,28 +560,28 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>0.84504145473758052</v>
+        <v>0.80826306638924816</v>
       </c>
       <c r="F4">
-        <v>49.179208891205612</v>
+        <v>48.175176927566156</v>
       </c>
       <c r="G4">
-        <v>98.827601806266671</v>
+        <v>96.574676167256214</v>
       </c>
       <c r="H4">
-        <v>4.7404701867702768</v>
+        <v>4.5324962568970051</v>
       </c>
       <c r="I4">
-        <v>9.5261658443714481</v>
+        <v>9.0860975746341364</v>
       </c>
       <c r="J4">
-        <v>5.1061559405353896E-2</v>
+        <v>5.0099468739529848E-2</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" s="1">
-        <v>147559344.2904951</v>
+        <v>147003426.88639215</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -598,28 +598,28 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>0.81042406571026948</v>
+        <v>0.83642620135653811</v>
       </c>
       <c r="F5">
-        <v>47.944732870955235</v>
+        <v>52.436966364507434</v>
       </c>
       <c r="G5">
-        <v>98.013088164629195</v>
+        <v>99.840255013370637</v>
       </c>
       <c r="H5">
-        <v>4.523185756269279</v>
+        <v>5.2612188399020781</v>
       </c>
       <c r="I5">
-        <v>9.2467175801658197</v>
+        <v>10.017387867283572</v>
       </c>
       <c r="J5">
-        <v>4.8559058568436626E-2</v>
+        <v>5.2934694524190758E-2</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" s="1">
-        <v>147031574.64102355</v>
+        <v>148773808.95029134</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -636,28 +636,28 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>0.82874061642916408</v>
+        <v>0.79392833811410435</v>
       </c>
       <c r="F6">
-        <v>94.413943507860097</v>
+        <v>44.700206602509631</v>
       </c>
       <c r="G6">
-        <v>143.87625302172401</v>
+        <v>94.584905426392069</v>
       </c>
       <c r="H6">
-        <v>9.3856550680027784</v>
+        <v>4.111891810362633</v>
       </c>
       <c r="I6">
-        <v>14.302684891307115</v>
+        <v>8.7006957588618867</v>
       </c>
       <c r="J6">
-        <v>5.0149702803756392E-2</v>
+        <v>4.7745803232193289E-2</v>
       </c>
       <c r="K6">
-        <v>0.98699999999999999</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1">
-        <v>158514088.94983667</v>
+        <v>146026133.0271534</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -674,28 +674,28 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>0.91134768300563351</v>
+        <v>0.84595745122395227</v>
       </c>
       <c r="F7">
-        <v>138.20598119958686</v>
+        <v>75.317163222249718</v>
       </c>
       <c r="G7">
-        <v>192.72457105003093</v>
+        <v>127.25911880520262</v>
       </c>
       <c r="H7">
-        <v>13.228823351282696</v>
+        <v>7.3747319492583845</v>
       </c>
       <c r="I7">
-        <v>18.447242903263085</v>
+        <v>12.460664331154071</v>
       </c>
       <c r="J7">
-        <v>5.0148821833377204E-2</v>
+        <v>4.8859776748659302E-2</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7" s="1">
-        <v>167633239.1569531</v>
+        <v>153838053.9876081</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -712,28 +712,28 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>0.61914445920151751</v>
+        <v>0.64494472876415709</v>
       </c>
       <c r="F8">
-        <v>6.7945277355954046</v>
+        <v>15.10297060486436</v>
       </c>
       <c r="G8">
-        <v>55.731324495184374</v>
+        <v>65.951752813714776</v>
       </c>
       <c r="H8">
-        <v>0.6366514918791959</v>
+        <v>1.4534087900267385</v>
       </c>
       <c r="I8">
-        <v>5.2220599083555683</v>
+        <v>6.346755202334224</v>
       </c>
       <c r="J8">
-        <v>5.0607681760878487E-2</v>
+        <v>5.0734330361359395E-2</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8" s="1">
-        <v>182866256.97445041</v>
+        <v>184875199.08865881</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -750,28 +750,28 @@
         <v>4</v>
       </c>
       <c r="E9">
-        <v>0.62337035316869249</v>
+        <v>0.62459152179692556</v>
       </c>
       <c r="F9">
-        <v>10.934593444056716</v>
+        <v>6.8747882821867492</v>
       </c>
       <c r="G9">
-        <v>60.361792209162374</v>
+        <v>56.490123765609283</v>
       </c>
       <c r="H9">
-        <v>1.0026022068814637</v>
+        <v>0.66111933769272957</v>
       </c>
       <c r="I9">
-        <v>5.534624253736693</v>
+        <v>5.4324164871911664</v>
       </c>
       <c r="J9">
-        <v>5.044755670910292E-2</v>
+        <v>5.0354715187251944E-2</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9" s="1">
-        <v>183710765.76804039</v>
+        <v>182977944.89588675</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -788,28 +788,28 @@
         <v>4</v>
       </c>
       <c r="E10">
-        <v>0.61151533423937487</v>
+        <v>0.63214750790124286</v>
       </c>
       <c r="F10">
-        <v>11.056817390636899</v>
+        <v>9.6468463644313829</v>
       </c>
       <c r="G10">
-        <v>60.591156753264833</v>
+        <v>60.611451193443095</v>
       </c>
       <c r="H10">
-        <v>1.0173756629887942</v>
+        <v>0.85395806572538369</v>
       </c>
       <c r="I10">
-        <v>5.5751999960957956</v>
+        <v>5.3654464543773264</v>
       </c>
       <c r="J10">
-        <v>4.9381123649404599E-2</v>
+        <v>4.9614630390807296E-2</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10" s="1">
-        <v>183753391.76758924</v>
+        <v>183355789.08915582</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -826,28 +826,28 @@
         <v>4</v>
       </c>
       <c r="E11">
-        <v>0.64803851352679753</v>
+        <v>0.63085942184018107</v>
       </c>
       <c r="F11">
-        <v>12.091800234445058</v>
+        <v>12.533397462655916</v>
       </c>
       <c r="G11">
-        <v>62.405957260148433</v>
+        <v>61.80032207347184</v>
       </c>
       <c r="H11">
-        <v>1.176500845636304</v>
+        <v>1.2407048897986175</v>
       </c>
       <c r="I11">
-        <v>6.0719380130147549</v>
+        <v>6.1177316059868865</v>
       </c>
       <c r="J11">
-        <v>5.151937759352631E-2</v>
+        <v>5.1219711952686722E-2</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11" s="1">
-        <v>184224779.43635488</v>
+        <v>184370413.87345529</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -864,28 +864,28 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>0.62618692920043728</v>
+        <v>0.62342737193682496</v>
       </c>
       <c r="F12">
-        <v>14.078844069787934</v>
+        <v>7.7742807326549359</v>
       </c>
       <c r="G12">
-        <v>66.367593801429081</v>
+        <v>59.048126473708265</v>
       </c>
       <c r="H12">
-        <v>1.2373684815631654</v>
+        <v>0.69814148514876939</v>
       </c>
       <c r="I12">
-        <v>5.8329482420577889</v>
+        <v>5.3026058781812191</v>
       </c>
       <c r="J12">
-        <v>4.7902230014233195E-2</v>
+        <v>4.8635117021282176E-2</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12" s="1">
-        <v>184281916.30572203</v>
+        <v>183017043.45958909</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -902,28 +902,28 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <v>0.57831853362488683</v>
+        <v>0.69368362602040168</v>
       </c>
       <c r="F13">
-        <v>5.7519737688580124</v>
+        <v>12.196382053687962</v>
       </c>
       <c r="G13">
-        <v>53.015542285632023</v>
+        <v>63.718749922153854</v>
       </c>
       <c r="H13">
-        <v>0.50876647401126962</v>
+        <v>1.2137536080225244</v>
       </c>
       <c r="I13">
-        <v>4.6892652157924308</v>
+        <v>6.3411315155803383</v>
       </c>
       <c r="J13">
-        <v>4.8944127730824065E-2</v>
+        <v>5.3854949197314921E-2</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13" s="1">
-        <v>182448522.29988572</v>
+        <v>184378942.34400326</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -940,28 +940,28 @@
         <v>5</v>
       </c>
       <c r="E14">
-        <v>0.47573611771379393</v>
+        <v>0.49096852130908453</v>
       </c>
       <c r="F14">
-        <v>2.3402367907112107</v>
+        <v>3.4048163483208844</v>
       </c>
       <c r="G14">
-        <v>49.835328055804148</v>
+        <v>53.763481183478028</v>
       </c>
       <c r="H14">
-        <v>0.21006107921169961</v>
+        <v>0.30889369135653383</v>
       </c>
       <c r="I14">
-        <v>4.4732493890457503</v>
+        <v>4.8775612144637597</v>
       </c>
       <c r="J14">
-        <v>5.0082661706920592E-2</v>
+        <v>4.8747174187025136E-2</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14" s="1">
-        <v>226779200.33616909</v>
+        <v>227100852.23359194</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -978,28 +978,28 @@
         <v>5</v>
       </c>
       <c r="E15">
-        <v>0.48832700880308211</v>
+        <v>0.50433548531814765</v>
       </c>
       <c r="F15">
-        <v>1.7607130094912593</v>
+        <v>1.9515687539785485</v>
       </c>
       <c r="G15">
-        <v>51.376019587803569</v>
+        <v>51.491293286248414</v>
       </c>
       <c r="H15">
-        <v>0.15642625095547563</v>
+        <v>0.18699482502661252</v>
       </c>
       <c r="I15">
-        <v>4.5643770959909453</v>
+        <v>4.9337771773742221</v>
       </c>
       <c r="J15">
-        <v>4.9211326350700996E-2</v>
+        <v>5.0902128552372833E-2</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15" s="1">
-        <v>226695611.13826919</v>
+        <v>226865413.20513853</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1016,28 +1016,28 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>0.51737062646601129</v>
+        <v>0.52756741197382062</v>
       </c>
       <c r="F16">
-        <v>3.1031547854272734</v>
+        <v>4.0434644770939308</v>
       </c>
       <c r="G16">
-        <v>52.102892316224086</v>
+        <v>55.129955897401672</v>
       </c>
       <c r="H16">
-        <v>0.29259052795657542</v>
+        <v>0.38400765153687122</v>
       </c>
       <c r="I16">
-        <v>4.9126820365067747</v>
+        <v>5.2356895957468073</v>
       </c>
       <c r="J16">
-        <v>5.2793203855514427E-2</v>
+        <v>5.16347274305183E-2</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16" s="1">
-        <v>227075986.91824025</v>
+        <v>227358644.40409029</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1054,28 +1054,28 @@
         <v>5</v>
       </c>
       <c r="E17">
-        <v>0.50937457622399962</v>
+        <v>0.53868489217604143</v>
       </c>
       <c r="F17">
-        <v>3.2096985667415163</v>
+        <v>3.6915147171211724</v>
       </c>
       <c r="G17">
-        <v>53.338928956329163</v>
+        <v>56.122748778118044</v>
       </c>
       <c r="H17">
-        <v>0.29686074320683542</v>
+        <v>0.35382738813007686</v>
       </c>
       <c r="I17">
-        <v>4.9332464599338914</v>
+        <v>5.3793001346417624</v>
       </c>
       <c r="J17">
-        <v>5.080614366760762E-2</v>
+        <v>5.1370609697013049E-2</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17" s="1">
-        <v>227091508.68622831</v>
+        <v>227338392.95270419</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1092,28 +1092,28 @@
         <v>5</v>
       </c>
       <c r="E18">
-        <v>0.52243513501714423</v>
+        <v>0.49258749961011938</v>
       </c>
       <c r="F18">
-        <v>2.1102695651824734</v>
+        <v>2.8127561121302489</v>
       </c>
       <c r="G18">
-        <v>53.546598327395465</v>
+        <v>51.803014942672185</v>
       </c>
       <c r="H18">
-        <v>0.20039897063197951</v>
+        <v>0.25492621386424402</v>
       </c>
       <c r="I18">
-        <v>5.0849822045015625</v>
+        <v>4.6950200940410429</v>
       </c>
       <c r="J18">
-        <v>5.0784644587712507E-2</v>
+        <v>5.0274025017298614E-2</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18" s="1">
-        <v>226937057.06032082</v>
+        <v>226936041.16233096</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1130,28 +1130,28 @@
         <v>5</v>
       </c>
       <c r="E19">
-        <v>0.50100417289611998</v>
+        <v>0.49639440669614937</v>
       </c>
       <c r="F19">
-        <v>3.208768502162747</v>
+        <v>1.5346567942553409</v>
       </c>
       <c r="G19">
-        <v>52.353391878419735</v>
+        <v>49.686238740644924</v>
       </c>
       <c r="H19">
-        <v>0.30328064017102757</v>
+        <v>0.14256354961365966</v>
       </c>
       <c r="I19">
-        <v>4.9482442230749939</v>
+        <v>4.6156551668968833</v>
       </c>
       <c r="J19">
-        <v>5.0972429787524635E-2</v>
+        <v>5.1544973875294373E-2</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19" s="1">
-        <v>227109029.24585664</v>
+        <v>226681114.63701829</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1168,28 +1168,28 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>0.92028377973453124</v>
+        <v>0.92745575816273718</v>
       </c>
       <c r="F20">
-        <v>135.37637973639249</v>
+        <v>145.44186474979983</v>
       </c>
       <c r="G20">
-        <v>194.06164199191986</v>
+        <v>203.60767109245134</v>
       </c>
       <c r="H20">
-        <v>12.938152652542984</v>
+        <v>13.901836858382621</v>
       </c>
       <c r="I20">
-        <v>18.546803755453361</v>
+        <v>19.461525960986286</v>
       </c>
       <c r="J20">
-        <v>4.7390369597968239E-2</v>
+        <v>4.7731973936408593E-2</v>
       </c>
       <c r="K20">
-        <v>0.98799999999999999</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="L20" s="1">
-        <v>167064754.81582367</v>
+        <v>169315036.65583068</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1206,28 +1206,28 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>0.94185366281362437</v>
+        <v>0.92245361899412481</v>
       </c>
       <c r="F21">
-        <v>153.64189453331255</v>
+        <v>114.50596095784749</v>
       </c>
       <c r="G21">
-        <v>212.2206108789259</v>
+        <v>168.70948710820815</v>
       </c>
       <c r="H21">
-        <v>14.916111844190626</v>
+        <v>11.680877444957556</v>
       </c>
       <c r="I21">
-        <v>20.603145887570225</v>
+        <v>17.210238019294742</v>
       </c>
       <c r="J21">
-        <v>4.839582808024305E-2</v>
+        <v>5.1215604665143813E-2</v>
       </c>
       <c r="K21">
-        <v>0.99199999999999999</v>
+        <v>0.998</v>
       </c>
       <c r="L21" s="1">
-        <v>171735391.30494136</v>
+        <v>164085650.07103294</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1244,28 +1244,28 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>0.89822824173611959</v>
+        <v>0.89548847934348486</v>
       </c>
       <c r="F22">
-        <v>80.744826487838708</v>
+        <v>117.71102013337612</v>
       </c>
       <c r="G22">
-        <v>134.45643625967398</v>
+        <v>174.27498404209254</v>
       </c>
       <c r="H22">
-        <v>8.0284885804310822</v>
+        <v>10.988784309905041</v>
       </c>
       <c r="I22">
-        <v>13.369054217223901</v>
+        <v>16.26925166463402</v>
       </c>
       <c r="J22">
-        <v>5.0169502211072615E-2</v>
+        <v>4.761170764167915E-2</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="L22" s="1">
-        <v>155447989.20099056</v>
+        <v>162388154.73813736</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1282,28 +1282,28 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>0.92435520994121145</v>
+        <v>0.96389627757754914</v>
       </c>
       <c r="F23">
-        <v>125.55413451331233</v>
+        <v>241.88678383489506</v>
       </c>
       <c r="G23">
-        <v>178.13439869706883</v>
+        <v>300.85100147294111</v>
       </c>
       <c r="H23">
-        <v>13.079101918225238</v>
+        <v>24.24224423153559</v>
       </c>
       <c r="I23">
-        <v>18.556441528046236</v>
+        <v>30.151723626154418</v>
       </c>
       <c r="J23">
-        <v>5.2724759574689008E-2</v>
+        <v>4.8662259167965162E-2</v>
       </c>
       <c r="K23">
-        <v>0.997</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="L23" s="1">
-        <v>167355773.54944673</v>
+        <v>193716434.10075474</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1320,28 +1320,28 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>0.92305072030015667</v>
+        <v>0.91109366649648971</v>
       </c>
       <c r="F24">
-        <v>203.93252272315607</v>
+        <v>131.39250580459444</v>
       </c>
       <c r="G24">
-        <v>258.18991624668115</v>
+        <v>186.94453868057204</v>
       </c>
       <c r="H24">
-        <v>20.362405524302201</v>
+        <v>13.034284942690363</v>
       </c>
       <c r="I24">
-        <v>25.779937926024495</v>
+        <v>18.545109332690512</v>
       </c>
       <c r="J24">
-        <v>5.1240017582232462E-2</v>
+        <v>4.915450866881009E-2</v>
       </c>
       <c r="K24">
-        <v>0.95699999999999996</v>
+        <v>0.999</v>
       </c>
       <c r="L24" s="1">
-        <v>184454689.90441802</v>
+        <v>167261536.57206157</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1358,28 +1358,28 @@
         <v>3</v>
       </c>
       <c r="E25">
-        <v>0.8959914512602184</v>
+        <v>0.96438880458433829</v>
       </c>
       <c r="F25">
-        <v>106.02672644026519</v>
+        <v>241.5152060456557</v>
       </c>
       <c r="G25">
-        <v>161.15565886687796</v>
+        <v>297.63031737726834</v>
       </c>
       <c r="H25">
-        <v>10.262371603503817</v>
+        <v>24.840065344214619</v>
       </c>
       <c r="I25">
-        <v>15.59832424168221</v>
+        <v>30.611557148385469</v>
       </c>
       <c r="J25">
-        <v>4.875796130024574E-2</v>
+        <v>5.1538885834757797E-2</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="L25" s="1">
-        <v>160696801.25045627</v>
+        <v>195080080.59173003</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1396,28 +1396,28 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>0.67263057789756864</v>
+        <v>0.66623855651946129</v>
       </c>
       <c r="F26">
-        <v>9.6330035194695149</v>
+        <v>11.853240848177702</v>
       </c>
       <c r="G26">
-        <v>61.467152281424994</v>
+        <v>67.862724354667151</v>
       </c>
       <c r="H26">
-        <v>0.92677468019291531</v>
+        <v>1.0553415772858381</v>
       </c>
       <c r="I26">
-        <v>5.9136488721146003</v>
+        <v>6.0420905536884435</v>
       </c>
       <c r="J26">
-        <v>5.1906366282704855E-2</v>
+        <v>4.7580410659724619E-2</v>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="L26" s="1">
-        <v>183664386.00094652</v>
+        <v>183968104.00475746</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1434,28 +1434,28 @@
         <v>4</v>
       </c>
       <c r="E27">
-        <v>0.67172430160817331</v>
+        <v>0.70851918882704956</v>
       </c>
       <c r="F27">
-        <v>15.290629035215831</v>
+        <v>20.571067386303223</v>
       </c>
       <c r="G27">
-        <v>70.788876471833248</v>
+        <v>75.410949131314851</v>
       </c>
       <c r="H27">
-        <v>1.4522001687967252</v>
+        <v>2.078156752961954</v>
       </c>
       <c r="I27">
-        <v>6.7230470456492721</v>
+        <v>7.6182616216044279</v>
       </c>
       <c r="J27">
-        <v>4.8414091084611456E-2</v>
+        <v>5.1679118647370147E-2</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27" s="1">
-        <v>184983081.55367965</v>
+        <v>186531209.21674278</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1472,28 +1472,28 @@
         <v>4</v>
       </c>
       <c r="E28">
-        <v>0.69745870268499444</v>
+        <v>0.67491551433233143</v>
       </c>
       <c r="F28">
-        <v>24.352060635791766</v>
+        <v>14.877440454142738</v>
       </c>
       <c r="G28">
-        <v>78.114454791588187</v>
+        <v>69.815976322771121</v>
       </c>
       <c r="H28">
-        <v>2.3987052848756445</v>
+        <v>1.3542234177327339</v>
       </c>
       <c r="I28">
-        <v>7.6943614068686834</v>
+        <v>6.3550198946918695</v>
       </c>
       <c r="J28">
-        <v>5.1891937748445617E-2</v>
+        <v>4.9139679728358296E-2</v>
       </c>
       <c r="K28">
         <v>1</v>
       </c>
       <c r="L28" s="1">
-        <v>187213283.87430209</v>
+        <v>184673979.42656887</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1510,28 +1510,28 @@
         <v>4</v>
       </c>
       <c r="E29">
-        <v>0.70482261763053577</v>
+        <v>0.66415623622673559</v>
       </c>
       <c r="F29">
-        <v>18.841472635922536</v>
+        <v>16.817039665588226</v>
       </c>
       <c r="G29">
-        <v>74.304195218133387</v>
+        <v>70.743518037736564</v>
       </c>
       <c r="H29">
-        <v>1.7513998539172586</v>
+        <v>1.5333809272361141</v>
       </c>
       <c r="I29">
-        <v>6.9069100470610003</v>
+        <v>6.4504076485363369</v>
       </c>
       <c r="J29">
-        <v>5.0832168693904028E-2</v>
+        <v>4.9263831518414576E-2</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29" s="1">
-        <v>185651731.05965018</v>
+        <v>185070576.01808384</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1548,28 +1548,28 @@
         <v>4</v>
       </c>
       <c r="E30">
-        <v>0.68698420908162694</v>
+        <v>0.67332973310603239</v>
       </c>
       <c r="F30">
-        <v>24.567668971506059</v>
+        <v>15.763986870449255</v>
       </c>
       <c r="G30">
-        <v>79.568480496708233</v>
+        <v>71.114767424253372</v>
       </c>
       <c r="H30">
-        <v>2.3183741976597942</v>
+        <v>1.416690007173119</v>
       </c>
       <c r="I30">
-        <v>7.5086290174503469</v>
+        <v>6.3909962118300738</v>
       </c>
       <c r="J30">
-        <v>4.9961750747393237E-2</v>
+        <v>4.8659095779255965E-2</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="L30" s="1">
-        <v>186994557.8605293</v>
+        <v>184813247.46149477</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1586,28 +1586,28 @@
         <v>4</v>
       </c>
       <c r="E31">
-        <v>0.7115732648815557</v>
+        <v>0.69182630939725898</v>
       </c>
       <c r="F31">
-        <v>26.213722730673052</v>
+        <v>15.360943673638602</v>
       </c>
       <c r="G31">
-        <v>83.317102869412722</v>
+        <v>72.67788155761977</v>
       </c>
       <c r="H31">
-        <v>2.58125299135745</v>
+        <v>1.4322559622272031</v>
       </c>
       <c r="I31">
-        <v>8.2041960702231833</v>
+        <v>6.7764931240247464</v>
       </c>
       <c r="J31">
-        <v>4.9844563537408945E-2</v>
+        <v>4.8280758528840263E-2</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="L31" s="1">
-        <v>187738279.25431338</v>
+        <v>184957619.24086869</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1624,28 +1624,28 @@
         <v>5</v>
       </c>
       <c r="E32">
-        <v>0.56104727058883175</v>
+        <v>0.54376008546428356</v>
       </c>
       <c r="F32">
-        <v>4.6904042615443755</v>
+        <v>3.7138934218966857</v>
       </c>
       <c r="G32">
-        <v>60.040631737004659</v>
+        <v>59.1594386481421</v>
       </c>
       <c r="H32">
-        <v>0.44188878115970304</v>
+        <v>0.34105853507074041</v>
       </c>
       <c r="I32">
-        <v>5.656502104914046</v>
+        <v>5.4327976570308731</v>
       </c>
       <c r="J32">
-        <v>5.0681568638319831E-2</v>
+        <v>4.9035507112922393E-2</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="L32" s="1">
-        <v>227600635.52469844</v>
+        <v>227328545.32673928</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -1662,28 +1662,28 @@
         <v>5</v>
       </c>
       <c r="E33">
-        <v>0.54558940176710646</v>
+        <v>0.57098772022154454</v>
       </c>
       <c r="F33">
-        <v>5.5977008318259038</v>
+        <v>6.4845210189794793</v>
       </c>
       <c r="G33">
-        <v>63.742609041285277</v>
+        <v>62.515249937119457</v>
       </c>
       <c r="H33">
-        <v>0.49540320159409901</v>
+        <v>0.59298968603434865</v>
       </c>
       <c r="I33">
-        <v>5.6412969441800662</v>
+        <v>5.7168290956369585</v>
       </c>
       <c r="J33">
-        <v>4.6916352486248029E-2</v>
+        <v>5.0953086926260487E-2</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
       <c r="L33" s="1">
-        <v>227707808.97065634</v>
+        <v>227929205.62277773</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -1700,28 +1700,28 @@
         <v>5</v>
       </c>
       <c r="E34">
-        <v>0.62574049554777611</v>
+        <v>0.56372534453762424</v>
       </c>
       <c r="F34">
-        <v>8.8027364907480532</v>
+        <v>3.1839752685914853</v>
       </c>
       <c r="G34">
-        <v>68.613306527065674</v>
+        <v>58.852220167228609</v>
       </c>
       <c r="H34">
-        <v>0.87752271671753945</v>
+        <v>0.29922778011602547</v>
       </c>
       <c r="I34">
-        <v>6.8398883926476994</v>
+        <v>5.5308906979449439</v>
       </c>
       <c r="J34">
-        <v>5.2310193262480126E-2</v>
+        <v>5.0632577474292277E-2</v>
       </c>
       <c r="K34">
         <v>1</v>
       </c>
       <c r="L34" s="1">
-        <v>228841360.47350848</v>
+        <v>227270361.97580802</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1738,28 +1738,28 @@
         <v>5</v>
       </c>
       <c r="E35">
-        <v>0.58435280789468735</v>
+        <v>0.48397224055961052</v>
       </c>
       <c r="F35">
-        <v>6.6524565838413618</v>
+        <v>3.5840643075580223</v>
       </c>
       <c r="G35">
-        <v>62.756690151643603</v>
+        <v>54.786523582294279</v>
       </c>
       <c r="H35">
-        <v>0.65279125007886429</v>
+        <v>0.31230202436121318</v>
       </c>
       <c r="I35">
-        <v>6.158178967212077</v>
+        <v>4.7738937569793753</v>
       </c>
       <c r="J35">
-        <v>5.2077425421781627E-2</v>
+        <v>4.72606440603534E-2</v>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="L35" s="1">
-        <v>228180348.22883791</v>
+        <v>227078260.20991808</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -1776,28 +1776,28 @@
         <v>5</v>
       </c>
       <c r="E36">
-        <v>0.48496003330910387</v>
+        <v>0.56589704785185679</v>
       </c>
       <c r="F36">
-        <v>2.1316476879552493</v>
+        <v>6.0685693728684456</v>
       </c>
       <c r="G36">
-        <v>52.985880784301294</v>
+        <v>61.787828503766676</v>
       </c>
       <c r="H36">
-        <v>0.18836202511257422</v>
+        <v>0.5727637739057968</v>
       </c>
       <c r="I36">
-        <v>4.6820719311633026</v>
+        <v>5.8316594341795867</v>
       </c>
       <c r="J36">
-        <v>4.7681383021775374E-2</v>
+        <v>5.0781099450947893E-2</v>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="L36" s="1">
-        <v>226796189.82304215</v>
+        <v>227921040.59352419</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -1814,28 +1814,28 @@
         <v>5</v>
       </c>
       <c r="E37">
-        <v>0.53609493269278308</v>
+        <v>0.55851310873326865</v>
       </c>
       <c r="F37">
-        <v>4.3307614324931878</v>
+        <v>3.6671744451627735</v>
       </c>
       <c r="G37">
-        <v>58.812119959544582</v>
+        <v>59.129419436423653</v>
       </c>
       <c r="H37">
-        <v>0.39265374671210651</v>
+        <v>0.34193375116850822</v>
       </c>
       <c r="I37">
-        <v>5.3322723068822304</v>
+        <v>5.5133303568314469</v>
       </c>
       <c r="J37">
-        <v>4.9199849929090732E-2</v>
+        <v>5.0350748407432179E-2</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
       <c r="L37" s="1">
-        <v>227405465.36205956</v>
+        <v>227353289.19684109</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -1852,28 +1852,28 @@
         <v>3</v>
       </c>
       <c r="E38">
-        <v>0.95930323526512051</v>
+        <v>0.93130926784362433</v>
       </c>
       <c r="F38">
-        <v>211.94230060279014</v>
+        <v>193.33102702082928</v>
       </c>
       <c r="G38">
-        <v>274.22985756391648</v>
+        <v>253.57183197539959</v>
       </c>
       <c r="H38">
-        <v>19.502821136228679</v>
+        <v>18.265178520015517</v>
       </c>
       <c r="I38">
-        <v>25.234489986526658</v>
+        <v>23.956500154416787</v>
       </c>
       <c r="J38">
-        <v>4.6366363582320547E-2</v>
+        <v>4.5555757540160835E-2</v>
       </c>
       <c r="K38">
-        <v>0.96599999999999997</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="L38" s="1">
-        <v>182527907.91923076</v>
+        <v>179608010.70856968</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -1890,28 +1890,28 @@
         <v>3</v>
       </c>
       <c r="E39">
-        <v>0.95262725547912386</v>
+        <v>0.93772318200774352</v>
       </c>
       <c r="F39">
-        <v>176.22884676586693</v>
+        <v>222.37823899017272</v>
       </c>
       <c r="G39">
-        <v>236.42551860408886</v>
+        <v>281.11835481279712</v>
       </c>
       <c r="H39">
-        <v>17.01013540879411</v>
+        <v>22.506484909635368</v>
       </c>
       <c r="I39">
-        <v>22.820498229174454</v>
+        <v>28.451461973738088</v>
       </c>
       <c r="J39">
-        <v>4.753880962835294E-2</v>
+        <v>4.8275435220755072E-2</v>
       </c>
       <c r="K39">
-        <v>0.97899999999999998</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="L39" s="1">
-        <v>176692556.7377862</v>
+        <v>189647874.57508922</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -1928,28 +1928,28 @@
         <v>3</v>
       </c>
       <c r="E40">
-        <v>0.98094372364574534</v>
+        <v>0.95401036019110241</v>
       </c>
       <c r="F40">
-        <v>320.47439384220087</v>
+        <v>238.8795610783751</v>
       </c>
       <c r="G40">
-        <v>384.54874856622934</v>
+        <v>299.32280277038882</v>
       </c>
       <c r="H40">
-        <v>30.605865441899141</v>
+        <v>24.372198315644098</v>
       </c>
       <c r="I40">
-        <v>36.725078448120584</v>
+        <v>30.539049371079678</v>
       </c>
       <c r="J40">
-        <v>4.5706493143371149E-2</v>
+        <v>4.7264107565894817E-2</v>
       </c>
       <c r="K40">
-        <v>0.91</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="L40" s="1">
-        <v>208733084.83834463</v>
+        <v>194097245.65855816</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -1966,28 +1966,28 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>0.99631327875705367</v>
+        <v>0.92581823721386558</v>
       </c>
       <c r="F41">
-        <v>308.88758355145222</v>
+        <v>202.46625411037809</v>
       </c>
       <c r="G41">
-        <v>368.87424852136337</v>
+        <v>258.45882595759463</v>
       </c>
       <c r="H41">
-        <v>31.230714454353752</v>
+        <v>21.105346148275203</v>
       </c>
       <c r="I41">
-        <v>37.29578959659306</v>
+        <v>26.942084797686999</v>
       </c>
       <c r="J41">
-        <v>4.9888355688171897E-2</v>
+        <v>4.9393093372505352E-2</v>
       </c>
       <c r="K41">
-        <v>0.94</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="L41" s="1">
-        <v>210184157.70073992</v>
+        <v>186323281.98541087</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2004,28 +2004,28 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>0.93713913551160088</v>
+        <v>0.99109004870957917</v>
       </c>
       <c r="F42">
-        <v>141.46109051347764</v>
+        <v>182.80765296342551</v>
       </c>
       <c r="G42">
-        <v>199.35471974788751</v>
+        <v>240.56452045916004</v>
       </c>
       <c r="H42">
-        <v>14.086240450597213</v>
+        <v>19.333241911802887</v>
       </c>
       <c r="I42">
-        <v>19.851101862265214</v>
+        <v>25.441451679073324</v>
       </c>
       <c r="J42">
-        <v>4.855151984970265E-2</v>
+        <v>5.1479075563582624E-2</v>
       </c>
       <c r="K42">
-        <v>0.96399999999999997</v>
+        <v>1</v>
       </c>
       <c r="L42" s="1">
-        <v>169807782.9097552</v>
+        <v>182237052.88167614</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2042,28 +2042,28 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>0.9732036465791376</v>
+        <v>0.981897157840533</v>
       </c>
       <c r="F43">
-        <v>291.14438229232769</v>
+        <v>300.65509567908344</v>
       </c>
       <c r="G43">
-        <v>349.63425926425606</v>
+        <v>362.25803194018363</v>
       </c>
       <c r="H43">
-        <v>29.226823796392257</v>
+        <v>29.468327910959751</v>
       </c>
       <c r="I43">
-        <v>35.098389356653655</v>
+        <v>35.506261583495025</v>
       </c>
       <c r="J43">
-        <v>4.9762851432232996E-2</v>
+        <v>4.7589952400603514E-2</v>
       </c>
       <c r="K43">
-        <v>0.99299999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="L43" s="1">
-        <v>205418750.43027079</v>
+        <v>206035513.05731297</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2080,28 +2080,28 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>0.75308016409609591</v>
+        <v>0.72002948445779658</v>
       </c>
       <c r="F44">
-        <v>30.804060572588142</v>
+        <v>16.515836608864134</v>
       </c>
       <c r="G44">
-        <v>89.455897556090591</v>
+        <v>72.2517147017968</v>
       </c>
       <c r="H44">
-        <v>3.0818332310230372</v>
+        <v>1.6107511313626319</v>
       </c>
       <c r="I44">
-        <v>8.9497343101799167</v>
+        <v>7.0465416893472907</v>
       </c>
       <c r="J44">
-        <v>5.1359357375825671E-2</v>
+        <v>5.1674397827355383E-2</v>
       </c>
       <c r="K44">
         <v>1</v>
       </c>
       <c r="L44" s="1">
-        <v>188985357.54792285</v>
+        <v>185402452.31189045</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2118,28 +2118,28 @@
         <v>4</v>
       </c>
       <c r="E45">
-        <v>0.76239854912903349</v>
+        <v>0.72238167436383338</v>
       </c>
       <c r="F45">
-        <v>33.284993364109454</v>
+        <v>26.015992348872601</v>
       </c>
       <c r="G45">
-        <v>93.773728539675957</v>
+        <v>86.597129776724216</v>
       </c>
       <c r="H45">
-        <v>3.3343840145160524</v>
+        <v>2.3398489995624958</v>
       </c>
       <c r="I45">
-        <v>9.3939517428721295</v>
+        <v>7.7884481497332718</v>
       </c>
       <c r="J45">
-        <v>5.041590285637159E-2</v>
+        <v>4.7696804981527001E-2</v>
       </c>
       <c r="K45">
         <v>1</v>
       </c>
       <c r="L45" s="1">
-        <v>189634980.67949322</v>
+        <v>187121051.19980347</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2156,28 +2156,28 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>0.71724526748013562</v>
+        <v>0.76244528281738067</v>
       </c>
       <c r="F46">
-        <v>14.991139418006254</v>
+        <v>32.341143766697407</v>
       </c>
       <c r="G46">
-        <v>72.735756623976869</v>
+        <v>95.016401974974642</v>
       </c>
       <c r="H46">
-        <v>1.4165141697905534</v>
+        <v>2.9281997700492872</v>
       </c>
       <c r="I46">
-        <v>6.8728084660827582</v>
+        <v>8.6028808511259154</v>
       </c>
       <c r="J46">
-        <v>4.9683956855876489E-2</v>
+        <v>4.8660048932462847E-2</v>
       </c>
       <c r="K46">
         <v>1</v>
       </c>
       <c r="L46" s="1">
-        <v>184952708.45540789</v>
+        <v>188569104.13585946</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2194,28 +2194,28 @@
         <v>4</v>
       </c>
       <c r="E47">
-        <v>0.69461321562483525</v>
+        <v>0.7619892828613668</v>
       </c>
       <c r="F47">
-        <v>23.519808050760869</v>
+        <v>22.718287880876993</v>
       </c>
       <c r="G47">
-        <v>81.107121018138074</v>
+        <v>83.027837609651584</v>
       </c>
       <c r="H47">
-        <v>2.0925168451685123</v>
+        <v>2.1132297550029171</v>
       </c>
       <c r="I47">
-        <v>7.215960973290537</v>
+        <v>7.7231566854981182</v>
       </c>
       <c r="J47">
-        <v>4.8247655938961971E-2</v>
+        <v>5.053854895539444E-2</v>
       </c>
       <c r="K47">
         <v>1</v>
       </c>
       <c r="L47" s="1">
-        <v>186444993.9564524</v>
+        <v>186634376.70517272</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2232,28 +2232,28 @@
         <v>4</v>
       </c>
       <c r="E48">
-        <v>0.74085752548621497</v>
+        <v>0.71655774097924907</v>
       </c>
       <c r="F48">
-        <v>23.68789329717108</v>
+        <v>18.082456394473049</v>
       </c>
       <c r="G48">
-        <v>84.167524018571356</v>
+        <v>76.483354557815147</v>
       </c>
       <c r="H48">
-        <v>2.2505190841746954</v>
+        <v>1.7628452802077492</v>
       </c>
       <c r="I48">
-        <v>7.9965160554884971</v>
+        <v>7.4563055845615596</v>
       </c>
       <c r="J48">
-        <v>4.8998812767159845E-2</v>
+        <v>4.9078542523445484E-2</v>
       </c>
       <c r="K48">
         <v>1</v>
       </c>
       <c r="L48" s="1">
-        <v>186997180.41167516</v>
+        <v>185835828.90360889</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2270,28 +2270,28 @@
         <v>4</v>
       </c>
       <c r="E49">
-        <v>0.75335453235986116</v>
+        <v>0.75239875107894094</v>
       </c>
       <c r="F49">
-        <v>37.798753616791409</v>
+        <v>22.616970380169938</v>
       </c>
       <c r="G49">
-        <v>98.477367006490809</v>
+        <v>82.080105196324794</v>
       </c>
       <c r="H49">
-        <v>3.6285824861718416</v>
+        <v>2.1658630680754341</v>
       </c>
       <c r="I49">
-        <v>9.4535722745453317</v>
+        <v>7.8602158237928705</v>
       </c>
       <c r="J49">
-        <v>4.9661947778638464E-2</v>
+        <v>5.0612787462697394E-2</v>
       </c>
       <c r="K49">
         <v>1</v>
       </c>
       <c r="L49" s="1">
-        <v>190258367.64050353</v>
+        <v>186782605.06659251</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2308,28 +2308,28 @@
         <v>5</v>
       </c>
       <c r="E50">
-        <v>0.62758376268731775</v>
+        <v>0.5941845792930428</v>
       </c>
       <c r="F50">
-        <v>5.9166318519698047</v>
+        <v>7.9889038070735099</v>
       </c>
       <c r="G50">
-        <v>68.75496740342814</v>
+        <v>69.797306175320927</v>
       </c>
       <c r="H50">
-        <v>0.5610480004616244</v>
+        <v>0.71689880866641142</v>
       </c>
       <c r="I50">
-        <v>6.5197291209955752</v>
+        <v>6.2633881760984771</v>
       </c>
       <c r="J50">
-        <v>4.9936376988644955E-2</v>
+        <v>4.806665085379163E-2</v>
       </c>
       <c r="K50">
         <v>1</v>
       </c>
       <c r="L50" s="1">
-        <v>228097462.86578944</v>
+        <v>228344465.61221865</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2346,28 +2346,28 @@
         <v>5</v>
       </c>
       <c r="E51">
-        <v>0.59918394259593188</v>
+        <v>0.56753976481951163</v>
       </c>
       <c r="F51">
-        <v>4.2516257834021127</v>
+        <v>6.4038644930695208</v>
       </c>
       <c r="G51">
-        <v>63.441875665170585</v>
+        <v>65.229358937420884</v>
       </c>
       <c r="H51">
-        <v>0.39488172340342864</v>
+        <v>0.59050707066753927</v>
       </c>
       <c r="I51">
-        <v>5.8923429471166173</v>
+        <v>6.0148676958020886</v>
       </c>
       <c r="J51">
-        <v>5.0615088109341649E-2</v>
+        <v>4.8239268550169294E-2</v>
       </c>
       <c r="K51">
         <v>1</v>
       </c>
       <c r="L51" s="1">
-        <v>227572502.60805759</v>
+        <v>228011840.83227655</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -2384,28 +2384,28 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>0.55387777972930852</v>
+        <v>0.57922087186576354</v>
       </c>
       <c r="F52">
-        <v>3.7028688854504539</v>
+        <v>15.326631788284809</v>
       </c>
       <c r="G52">
-        <v>62.45328365450775</v>
+        <v>73.495550512023641</v>
       </c>
       <c r="H52">
-        <v>0.32154612297100732</v>
+        <v>1.4430119853356334</v>
       </c>
       <c r="I52">
-        <v>5.4232574382586121</v>
+        <v>6.9196521272701021</v>
       </c>
       <c r="J52">
-        <v>4.7138201654112061E-2</v>
+        <v>4.9787832108127296E-2</v>
       </c>
       <c r="K52">
         <v>1</v>
       </c>
       <c r="L52" s="1">
-        <v>227286304.55611029</v>
+        <v>230029860.00980112</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -2422,28 +2422,28 @@
         <v>5</v>
       </c>
       <c r="E53">
-        <v>0.58034484879467407</v>
+        <v>0.58040082801723225</v>
       </c>
       <c r="F53">
-        <v>7.895025913162689</v>
+        <v>4.0667713750060752</v>
       </c>
       <c r="G53">
-        <v>69.366950917117151</v>
+        <v>62.891654584932688</v>
       </c>
       <c r="H53">
-        <v>0.71312584438847626</v>
+        <v>0.37987521779241973</v>
       </c>
       <c r="I53">
-        <v>6.2656368692787341</v>
+        <v>5.8746801282236447</v>
       </c>
       <c r="J53">
-        <v>4.7204056872900912E-2</v>
+        <v>4.9332935005240386E-2</v>
       </c>
       <c r="K53">
         <v>1</v>
       </c>
       <c r="L53" s="1">
-        <v>228337674.92122865</v>
+        <v>227536945.14012069</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -2460,28 +2460,28 @@
         <v>5</v>
       </c>
       <c r="E54">
-        <v>0.63300992677683954</v>
+        <v>0.56218748256911166</v>
       </c>
       <c r="F54">
-        <v>7.988226839052726</v>
+        <v>4.5892741138233051</v>
       </c>
       <c r="G54">
-        <v>68.388751354265864</v>
+        <v>61.526628868190912</v>
       </c>
       <c r="H54">
-        <v>0.78297855050633325</v>
+        <v>0.42235075521862142</v>
       </c>
       <c r="I54">
-        <v>6.7032304521601338</v>
+        <v>5.6622937580182136</v>
       </c>
       <c r="J54">
-        <v>5.2401028952770351E-2</v>
+        <v>4.9368949874334267E-2</v>
       </c>
       <c r="K54">
         <v>1</v>
       </c>
       <c r="L54" s="1">
-        <v>228606892.51121387</v>
+        <v>227562584.33237556</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -2498,28 +2498,28 @@
         <v>5</v>
       </c>
       <c r="E55">
-        <v>0.54647420801769642</v>
+        <v>0.587134589123117</v>
       </c>
       <c r="F55">
-        <v>2.9679607415417477</v>
+        <v>3.9606379035225299</v>
       </c>
       <c r="G55">
-        <v>61.091940279918418</v>
+        <v>63.650729686814188</v>
       </c>
       <c r="H55">
-        <v>0.25764016718797783</v>
+        <v>0.34646849883065894</v>
       </c>
       <c r="I55">
-        <v>5.3032162748149823</v>
+        <v>5.5680355794335545</v>
       </c>
       <c r="J55">
-        <v>4.7009359334806322E-2</v>
+        <v>4.9181913746651811E-2</v>
       </c>
       <c r="K55">
         <v>1</v>
       </c>
       <c r="L55" s="1">
-        <v>227119838.53046063</v>
+        <v>227378983.77505249</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -2536,28 +2536,28 @@
         <v>3</v>
       </c>
       <c r="E56">
-        <v>0.99237381469102026</v>
+        <v>0.98539310288408177</v>
       </c>
       <c r="F56">
-        <v>248.73591730071428</v>
+        <v>228.3995467935539</v>
       </c>
       <c r="G56">
-        <v>312.36799770087725</v>
+        <v>291.48993100847161</v>
       </c>
       <c r="H56">
-        <v>24.182912118940191</v>
+        <v>22.197786221738987</v>
       </c>
       <c r="I56">
-        <v>30.36942922898065</v>
+        <v>28.329439638354458</v>
       </c>
       <c r="J56">
-        <v>4.6585957478468193E-2</v>
+        <v>4.6682853981743988E-2</v>
       </c>
       <c r="K56">
-        <v>0.91200000000000003</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="L56" s="1">
-        <v>193658400.22447681</v>
+        <v>188977352.69507855</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -2574,28 +2574,28 @@
         <v>3</v>
       </c>
       <c r="E57">
-        <v>0.93759901207702356</v>
+        <v>0.96295069814095802</v>
       </c>
       <c r="F57">
-        <v>156.63840811479335</v>
+        <v>208.51470821840337</v>
       </c>
       <c r="G57">
-        <v>218.53273832911401</v>
+        <v>269.58183409970587</v>
       </c>
       <c r="H57">
-        <v>13.987171495281132</v>
+        <v>20.358103221383708</v>
       </c>
       <c r="I57">
-        <v>19.514082945114119</v>
+        <v>26.320324604935315</v>
       </c>
       <c r="J57">
-        <v>4.5409551426227393E-2</v>
+        <v>4.7204557100029514E-2</v>
       </c>
       <c r="K57">
-        <v>0.98399999999999999</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="L57" s="1">
-        <v>169506905.66402721</v>
+        <v>184604597.28395268</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -2612,28 +2612,28 @@
         <v>3</v>
       </c>
       <c r="E58">
-        <v>0.99356753952621935</v>
+        <v>0.993889281471251</v>
       </c>
       <c r="F58">
-        <v>387.52437411936125</v>
+        <v>334.34649612241725</v>
       </c>
       <c r="G58">
-        <v>457.9183643098811</v>
+        <v>400.63171086098771</v>
       </c>
       <c r="H58">
-        <v>35.665507968040593</v>
+        <v>31.716389970852997</v>
       </c>
       <c r="I58">
-        <v>42.144164758977972</v>
+        <v>38.004261219189601</v>
       </c>
       <c r="J58">
-        <v>4.1860823290241697E-2</v>
+        <v>4.5307002439025593E-2</v>
       </c>
       <c r="K58">
-        <v>0.86499999999999999</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="L58" s="1">
-        <v>220729285.0423243</v>
+        <v>211392046.83885586</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -2650,28 +2650,28 @@
         <v>3</v>
       </c>
       <c r="E59">
-        <v>0.99244578964179286</v>
+        <v>0.9855033752825535</v>
       </c>
       <c r="F59">
-        <v>381.91009282370965</v>
+        <v>327.41200907448518</v>
       </c>
       <c r="G59">
-        <v>447.22002788299329</v>
+        <v>394.04651708180648</v>
       </c>
       <c r="H59">
-        <v>37.058892748394207</v>
+        <v>32.583394313031143</v>
       </c>
       <c r="I59">
-        <v>43.39628451741406</v>
+        <v>39.214728500786741</v>
       </c>
       <c r="J59">
-        <v>4.5524099092478315E-2</v>
+        <v>4.384549398407326E-2</v>
       </c>
       <c r="K59">
-        <v>0.92400000000000004</v>
+        <v>0.88</v>
       </c>
       <c r="L59" s="1">
-        <v>223961257.42635149</v>
+        <v>213530002.82401603</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -2688,28 +2688,28 @@
         <v>3</v>
       </c>
       <c r="E60">
-        <v>0.96509407193824182</v>
+        <v>0.99659674525245501</v>
       </c>
       <c r="F60">
-        <v>267.20277205740899</v>
+        <v>384.25051343796662</v>
       </c>
       <c r="G60">
-        <v>328.93471942999116</v>
+        <v>454.43904174133576</v>
       </c>
       <c r="H60">
-        <v>25.509404232083586</v>
+        <v>33.77467788782814</v>
       </c>
       <c r="I60">
-        <v>31.402850574109454</v>
+        <v>39.944077412260292</v>
       </c>
       <c r="J60">
-        <v>4.6722186146140092E-2</v>
+        <v>4.1591039010855521E-2</v>
       </c>
       <c r="K60">
-        <v>0.95899999999999996</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="L60" s="1">
-        <v>196690322.01112118</v>
+        <v>216195941.65837681</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -2726,28 +2726,28 @@
         <v>3</v>
       </c>
       <c r="E61">
-        <v>0.97998892646438074</v>
+        <v>0.99012347313754134</v>
       </c>
       <c r="F61">
-        <v>402.7998312538956</v>
+        <v>448.2226212713432</v>
       </c>
       <c r="G61">
-        <v>468.94364871573089</v>
+        <v>516.27035408004804</v>
       </c>
       <c r="H61">
-        <v>38.163992366033206</v>
+        <v>41.18032886051342</v>
       </c>
       <c r="I61">
-        <v>44.430906969288422</v>
+        <v>47.432195415857159</v>
       </c>
       <c r="J61">
-        <v>4.3942727364617802E-2</v>
+        <v>4.335608295025091E-2</v>
       </c>
       <c r="K61">
-        <v>0.93200000000000005</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="L61" s="1">
-        <v>226538325.68696356</v>
+        <v>233622557.45870525</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -2764,28 +2764,28 @@
         <v>4</v>
       </c>
       <c r="E62">
-        <v>0.78725195184999119</v>
+        <v>0.80665787224849639</v>
       </c>
       <c r="F62">
-        <v>51.716401383824987</v>
+        <v>39.388548377443563</v>
       </c>
       <c r="G62">
-        <v>118.83116428338283</v>
+        <v>107.14602573607065</v>
       </c>
       <c r="H62">
-        <v>4.5537321424874371</v>
+        <v>3.8078152856554293</v>
       </c>
       <c r="I62">
-        <v>10.463320684483856</v>
+        <v>10.35814447096209</v>
       </c>
       <c r="J62">
-        <v>4.6873067221292405E-2</v>
+        <v>4.7620301327277278E-2</v>
       </c>
       <c r="K62">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="L62" s="1">
-        <v>192458133.40035841</v>
+        <v>190891404.10121673</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -2802,28 +2802,28 @@
         <v>4</v>
       </c>
       <c r="E63">
-        <v>0.83973985458159539</v>
+        <v>0.84619146244929833</v>
       </c>
       <c r="F63">
-        <v>56.587208526104661</v>
+        <v>57.043536277370535</v>
       </c>
       <c r="G63">
-        <v>123.18613056279368</v>
+        <v>123.42807179802507</v>
       </c>
       <c r="H63">
-        <v>5.5973297625981502</v>
+        <v>5.5560652443576792</v>
       </c>
       <c r="I63">
-        <v>12.184969234174932</v>
+        <v>12.02194787785521</v>
       </c>
       <c r="J63">
-        <v>5.0435642433911375E-2</v>
+        <v>5.0987264176068213E-2</v>
       </c>
       <c r="K63">
         <v>1</v>
       </c>
       <c r="L63" s="1">
-        <v>195106564.66242179</v>
+        <v>194973954.9465223</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -2840,28 +2840,28 @@
         <v>4</v>
       </c>
       <c r="E64">
-        <v>0.75920214493402849</v>
+        <v>0.71522882093465101</v>
       </c>
       <c r="F64">
-        <v>35.027635656920594</v>
+        <v>16.100487108118969</v>
       </c>
       <c r="G64">
-        <v>100.64135703341343</v>
+        <v>76.706611537979256</v>
       </c>
       <c r="H64">
-        <v>3.1438026009278399</v>
+        <v>1.4630842956718939</v>
       </c>
       <c r="I64">
-        <v>9.0327695280809035</v>
+        <v>6.9704871636354886</v>
       </c>
       <c r="J64">
-        <v>4.6283132796429156E-2</v>
+        <v>4.7205052470390932E-2</v>
       </c>
       <c r="K64">
         <v>1</v>
       </c>
       <c r="L64" s="1">
-        <v>189139019.31318328</v>
+        <v>185077950.43472999</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -2878,28 +2878,28 @@
         <v>4</v>
       </c>
       <c r="E65">
-        <v>0.80411123649274496</v>
+        <v>0.78520526535251411</v>
       </c>
       <c r="F65">
-        <v>47.534891524616995</v>
+        <v>31.648270600783793</v>
       </c>
       <c r="G65">
-        <v>113.08831188999623</v>
+        <v>95.853400643550771</v>
       </c>
       <c r="H65">
-        <v>4.3595570467090807</v>
+        <v>3.0815262183218413</v>
       </c>
       <c r="I65">
-        <v>10.371643464151983</v>
+        <v>9.3330460587977342</v>
       </c>
       <c r="J65">
-        <v>4.9066012544323211E-2</v>
+        <v>4.8918537495647986E-2</v>
       </c>
       <c r="K65">
         <v>1</v>
       </c>
       <c r="L65" s="1">
-        <v>192030826.4525381</v>
+        <v>189097184.43507397</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -2916,28 +2916,28 @@
         <v>4</v>
       </c>
       <c r="E66">
-        <v>0.80654072319227532</v>
+        <v>0.86316329034605577</v>
       </c>
       <c r="F66">
-        <v>40.887172889912065</v>
+        <v>89.644265122846079</v>
       </c>
       <c r="G66">
-        <v>104.25167913172054</v>
+        <v>160.34511530037051</v>
       </c>
       <c r="H66">
-        <v>4.0151221295748183</v>
+        <v>8.7068726257324514</v>
       </c>
       <c r="I66">
-        <v>10.237519357333211</v>
+        <v>15.573829437561072</v>
       </c>
       <c r="J66">
-        <v>5.0914353856993236E-2</v>
+        <v>4.8834676707774742E-2</v>
       </c>
       <c r="K66">
         <v>1</v>
       </c>
       <c r="L66" s="1">
-        <v>191281911.71508217</v>
+        <v>202495872.09894797</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -2954,28 +2954,28 @@
         <v>4</v>
       </c>
       <c r="E67">
-        <v>0.77657396199164863</v>
+        <v>0.81438204170061113</v>
       </c>
       <c r="F67">
-        <v>38.687144975025326</v>
+        <v>48.02598631671988</v>
       </c>
       <c r="G67">
-        <v>102.58056376042234</v>
+        <v>113.34050152687189</v>
       </c>
       <c r="H67">
-        <v>3.6664183510429256</v>
+        <v>4.6819069242688522</v>
       </c>
       <c r="I67">
-        <v>9.721659783226098</v>
+        <v>11.049219799448956</v>
       </c>
       <c r="J67">
-        <v>4.8616835771457284E-2</v>
+        <v>4.9874490476140246E-2</v>
       </c>
       <c r="K67">
         <v>1</v>
       </c>
       <c r="L67" s="1">
-        <v>190414677.06830189</v>
+        <v>192891416.38478068</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -2992,28 +2992,28 @@
         <v>5</v>
       </c>
       <c r="E68">
-        <v>0.60385526643842258</v>
+        <v>0.64929940798277797</v>
       </c>
       <c r="F68">
-        <v>8.9414540603211101</v>
+        <v>12.650512842785606</v>
       </c>
       <c r="G68">
-        <v>70.967041271244383</v>
+        <v>77.570098078766634</v>
       </c>
       <c r="H68">
-        <v>0.80430859244538233</v>
+        <v>1.2235783011189898</v>
       </c>
       <c r="I68">
-        <v>6.3836821941730202</v>
+        <v>7.5027068075724825</v>
       </c>
       <c r="J68">
-        <v>4.8677916130399755E-2</v>
+        <v>5.0007975684270914E-2</v>
       </c>
       <c r="K68">
         <v>1</v>
       </c>
       <c r="L68" s="1">
-        <v>228559218.6918005</v>
+        <v>229747632.41212603</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -3030,28 +3030,28 @@
         <v>5</v>
       </c>
       <c r="E69">
-        <v>0.60797254852898519</v>
+        <v>0.67623076736973298</v>
       </c>
       <c r="F69">
-        <v>10.976149874039727</v>
+        <v>9.9550490512146954</v>
       </c>
       <c r="G69">
-        <v>76.871035545337719</v>
+        <v>75.314876106288523</v>
       </c>
       <c r="H69">
-        <v>0.96406243693875626</v>
+        <v>0.97820284322675266</v>
       </c>
       <c r="I69">
-        <v>6.7517735005716277</v>
+        <v>7.4005889439040571</v>
       </c>
       <c r="J69">
-        <v>4.6131998131214644E-2</v>
+        <v>5.1731376736961411E-2</v>
       </c>
       <c r="K69">
         <v>1</v>
       </c>
       <c r="L69" s="1">
-        <v>228996221.14702404</v>
+        <v>229212041.77060363</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -3068,28 +3068,28 @@
         <v>5</v>
       </c>
       <c r="E70">
-        <v>0.62522228486005438</v>
+        <v>0.6489416677861678</v>
       </c>
       <c r="F70">
-        <v>8.0035814229923865</v>
+        <v>11.70759582994924</v>
       </c>
       <c r="G70">
-        <v>72.206253261616908</v>
+        <v>78.82788119656766</v>
       </c>
       <c r="H70">
-        <v>0.72292183565667323</v>
+        <v>1.0433679314012911</v>
       </c>
       <c r="I70">
-        <v>6.5220148824652497</v>
+        <v>7.0250531821755011</v>
       </c>
       <c r="J70">
-        <v>4.869129795965272E-2</v>
+        <v>4.8341694633863327E-2</v>
       </c>
       <c r="K70">
         <v>1</v>
       </c>
       <c r="L70" s="1">
-        <v>228431893.15367961</v>
+        <v>229238206.9112806</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -3106,28 +3106,28 @@
         <v>5</v>
       </c>
       <c r="E71">
-        <v>0.61381905172493423</v>
+        <v>0.6015630076125229</v>
       </c>
       <c r="F71">
-        <v>9.7188035642849506</v>
+        <v>10.078290720394524</v>
       </c>
       <c r="G71">
-        <v>72.523727765625893</v>
+        <v>73.705789070847061</v>
       </c>
       <c r="H71">
-        <v>0.87062050387807133</v>
+        <v>0.92281060905313661</v>
       </c>
       <c r="I71">
-        <v>6.4967507566936593</v>
+        <v>6.7488114790707119</v>
       </c>
       <c r="J71">
-        <v>4.8867111896922506E-2</v>
+        <v>4.7272250458377796E-2</v>
       </c>
       <c r="K71">
         <v>1</v>
       </c>
       <c r="L71" s="1">
-        <v>228728586.92072147</v>
+        <v>228909994.09052807</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -3144,28 +3144,28 @@
         <v>5</v>
       </c>
       <c r="E72">
-        <v>0.59005483780546575</v>
+        <v>0.66598527890940973</v>
       </c>
       <c r="F72">
-        <v>8.6222179736142497</v>
+        <v>8.9777030378532352</v>
       </c>
       <c r="G72">
-        <v>69.722252842966824</v>
+        <v>72.260987699351489</v>
       </c>
       <c r="H72">
-        <v>0.76780868172367445</v>
+        <v>0.86726356743241184</v>
       </c>
       <c r="I72">
-        <v>6.2087679998332304</v>
+        <v>6.9805518977507646</v>
       </c>
       <c r="J72">
-        <v>4.8285965717299026E-2</v>
+        <v>5.2619367220882993E-2</v>
       </c>
       <c r="K72">
         <v>1</v>
       </c>
       <c r="L72" s="1">
-        <v>228433312.32647654</v>
+        <v>228861054.02488095</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -3182,28 +3182,28 @@
         <v>5</v>
       </c>
       <c r="E73">
-        <v>0.68110133856670863</v>
+        <v>0.66710010236009976</v>
       </c>
       <c r="F73">
-        <v>14.933082961165789</v>
+        <v>15.496404511609009</v>
       </c>
       <c r="G73">
-        <v>82.413977243568866</v>
+        <v>78.690606634638627</v>
       </c>
       <c r="H73">
-        <v>1.4649068499382629</v>
+        <v>1.5045813116175544</v>
       </c>
       <c r="I73">
-        <v>8.0846533906442009</v>
+        <v>7.6402507467864478</v>
       </c>
       <c r="J73">
-        <v>5.0466235355176595E-2</v>
+        <v>5.2781748953911807E-2</v>
       </c>
       <c r="K73">
         <v>1</v>
       </c>
       <c r="L73" s="1">
-        <v>230413702.50244218</v>
+        <v>230365202.73207769</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -3220,28 +3220,28 @@
         <v>3</v>
       </c>
       <c r="E74">
-        <v>0.99628245982200891</v>
+        <v>0.98021583639184096</v>
       </c>
       <c r="F74">
-        <v>316.01548079359765</v>
+        <v>259.08419132980265</v>
       </c>
       <c r="G74">
-        <v>390.25259922686206</v>
+        <v>326.05372765778975</v>
       </c>
       <c r="H74">
-        <v>28.874643249925558</v>
+        <v>24.044910928540016</v>
       </c>
       <c r="I74">
-        <v>35.657761296167841</v>
+        <v>30.260174498528603</v>
       </c>
       <c r="J74">
-        <v>4.1332060390623294E-2</v>
+        <v>4.3553911323621082E-2</v>
       </c>
       <c r="K74">
-        <v>0.84199999999999997</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="L74" s="1">
-        <v>204859549.46613508</v>
+        <v>193343599.66418937</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -3258,28 +3258,28 @@
         <v>3</v>
       </c>
       <c r="E75">
-        <v>0.9851253607915359</v>
+        <v>0.98534208957581459</v>
       </c>
       <c r="F75">
-        <v>336.86563570819976</v>
+        <v>308.47338663869795</v>
       </c>
       <c r="G75">
-        <v>410.22182959848823</v>
+        <v>379.3418882415732</v>
       </c>
       <c r="H75">
-        <v>31.536604434926687</v>
+        <v>28.337632723238904</v>
       </c>
       <c r="I75">
-        <v>38.404046596862536</v>
+        <v>34.847904458352062</v>
       </c>
       <c r="J75">
-        <v>4.058567320931563E-2</v>
+        <v>4.2009768404296828E-2</v>
       </c>
       <c r="K75">
-        <v>0.83799999999999997</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="L75" s="1">
-        <v>211139976.46374756</v>
+        <v>203517922.31137776</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -3296,28 +3296,28 @@
         <v>3</v>
       </c>
       <c r="E76">
-        <v>0.99418690740476501</v>
+        <v>0.98178708774049495</v>
       </c>
       <c r="F76">
-        <v>389.29002082905731</v>
+        <v>303.88318658927841</v>
       </c>
       <c r="G76">
-        <v>460.79765009311427</v>
+        <v>372.89185216799382</v>
       </c>
       <c r="H76">
-        <v>33.79824167237296</v>
+        <v>27.330246154249462</v>
       </c>
       <c r="I76">
-        <v>40.006549119191156</v>
+        <v>33.536656710262491</v>
       </c>
       <c r="J76">
-        <v>4.0790519780818379E-2</v>
+        <v>4.1881627982536758E-2</v>
       </c>
       <c r="K76">
-        <v>0.871</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="L76" s="1">
-        <v>216262938.95218274</v>
+        <v>201062188.32379258</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -3334,28 +3334,28 @@
         <v>3</v>
       </c>
       <c r="E77">
-        <v>0.98920767488350736</v>
+        <v>0.99299897249640356</v>
       </c>
       <c r="F77">
-        <v>421.32967621640341</v>
+        <v>417.9119842260323</v>
       </c>
       <c r="G77">
-        <v>492.20433786436172</v>
+        <v>490.62232195255473</v>
       </c>
       <c r="H77">
-        <v>37.852901387364632</v>
+        <v>39.833864567851919</v>
       </c>
       <c r="I77">
-        <v>44.220389199557225</v>
+        <v>46.764351979082875</v>
       </c>
       <c r="J77">
-        <v>4.1434335831641592E-2</v>
+        <v>4.0947807424879794E-2</v>
       </c>
       <c r="K77">
-        <v>0.84</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="L77" s="1">
-        <v>225837469.33771807</v>
+        <v>230656748.14333591</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -3372,28 +3372,28 @@
         <v>3</v>
       </c>
       <c r="E78">
-        <v>0.99382410275266186</v>
+        <v>0.99289646301040257</v>
       </c>
       <c r="F78">
-        <v>410.19960543225608</v>
+        <v>432.67471728224348</v>
       </c>
       <c r="G78">
-        <v>480.95245318528367</v>
+        <v>501.33736052667621</v>
       </c>
       <c r="H78">
-        <v>38.880896354044452</v>
+        <v>41.436458795301704</v>
       </c>
       <c r="I78">
-        <v>45.587226891198682</v>
+        <v>48.012153361985824</v>
       </c>
       <c r="J78">
-        <v>4.3125924866797102E-2</v>
+        <v>4.336361895328298E-2</v>
       </c>
       <c r="K78">
-        <v>0.874</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="L78" s="1">
-        <v>228351226.39649129</v>
+        <v>234318693.93075663</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -3410,28 +3410,28 @@
         <v>3</v>
       </c>
       <c r="E79">
-        <v>0.98398083225986666</v>
+        <v>0.98217183648991557</v>
       </c>
       <c r="F79">
-        <v>364.3575918442512</v>
+        <v>412.44422300269548</v>
       </c>
       <c r="G79">
-        <v>431.33750281316026</v>
+        <v>483.33094209780518</v>
       </c>
       <c r="H79">
-        <v>33.437181708464905</v>
+        <v>38.915819449960424</v>
       </c>
       <c r="I79">
-        <v>39.583943856463634</v>
+        <v>45.60427478004592</v>
       </c>
       <c r="J79">
-        <v>4.3793802650865112E-2</v>
+        <v>4.2506264584863347E-2</v>
       </c>
       <c r="K79">
-        <v>0.91600000000000004</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="L79" s="1">
-        <v>215395412.1239661</v>
+        <v>228428326.35924253</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -3448,28 +3448,28 @@
         <v>4</v>
       </c>
       <c r="E80">
-        <v>0.82735830475412731</v>
+        <v>0.87226602354850491</v>
       </c>
       <c r="F80">
-        <v>41.328374997828483</v>
+        <v>98.749749568714932</v>
       </c>
       <c r="G80">
-        <v>109.37892103792275</v>
+        <v>169.14870429102956</v>
       </c>
       <c r="H80">
-        <v>3.855423469810102</v>
+        <v>9.6113513779084343</v>
       </c>
       <c r="I80">
-        <v>10.203693208220036</v>
+        <v>16.463308911256913</v>
       </c>
       <c r="J80">
-        <v>4.8631986245439567E-2</v>
+        <v>4.9441097699228442E-2</v>
       </c>
       <c r="K80">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="L80" s="1">
-        <v>190944104.65308899</v>
+        <v>204616804.96865201</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -3486,28 +3486,28 @@
         <v>4</v>
       </c>
       <c r="E81">
-        <v>0.90930185340838243</v>
+        <v>0.88277758816160579</v>
       </c>
       <c r="F81">
-        <v>101.64209724297319</v>
+        <v>127.20010881249578</v>
       </c>
       <c r="G81">
-        <v>173.57480681280526</v>
+        <v>198.70351758667849</v>
       </c>
       <c r="H81">
-        <v>10.187483293049853</v>
+        <v>12.358971656387196</v>
       </c>
       <c r="I81">
-        <v>17.397225091418079</v>
+        <v>19.306360386045093</v>
       </c>
       <c r="J81">
-        <v>5.0739997489300658E-2</v>
+        <v>4.9304731772031991E-2</v>
       </c>
       <c r="K81">
-        <v>0.98799999999999999</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="L81" s="1">
-        <v>206074343.10293382</v>
+        <v>211101534.23842585</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -3524,28 +3524,28 @@
         <v>4</v>
       </c>
       <c r="E82">
-        <v>0.82084590301621951</v>
+        <v>0.87566093970292358</v>
       </c>
       <c r="F82">
-        <v>76.758739220021425</v>
+        <v>66.494508119164976</v>
       </c>
       <c r="G82">
-        <v>140.52675978452501</v>
+        <v>135.73396317010949</v>
       </c>
       <c r="H82">
-        <v>7.6318801593371006</v>
+        <v>6.4678331912171299</v>
       </c>
       <c r="I82">
-        <v>13.972133997423777</v>
+        <v>13.202663753731098</v>
       </c>
       <c r="J82">
-        <v>5.1429120914632753E-2</v>
+        <v>5.0587396394650187E-2</v>
       </c>
       <c r="K82">
-        <v>0.99399999999999999</v>
+        <v>1</v>
       </c>
       <c r="L82" s="1">
-        <v>199815396.32098246</v>
+        <v>197195023.41940382</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -3562,28 +3562,28 @@
         <v>4</v>
       </c>
       <c r="E83">
-        <v>0.88482227349995934</v>
+        <v>0.79997767992930435</v>
       </c>
       <c r="F83">
-        <v>106.67576719302859</v>
+        <v>40.807628589236081</v>
       </c>
       <c r="G83">
-        <v>178.11677133577513</v>
+        <v>109.16585148952905</v>
       </c>
       <c r="H83">
-        <v>10.640512377991609</v>
+        <v>3.7447855833105703</v>
       </c>
       <c r="I83">
-        <v>17.766487741276574</v>
+        <v>10.017801106816629</v>
       </c>
       <c r="J83">
-        <v>4.9540996178751712E-2</v>
+        <v>4.681091145954152E-2</v>
       </c>
       <c r="K83">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="L83" s="1">
-        <v>207115035.04542917</v>
+        <v>190662889.54632279</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -3600,28 +3600,28 @@
         <v>4</v>
       </c>
       <c r="E84">
-        <v>0.88094892310087514</v>
+        <v>0.83806136797335373</v>
       </c>
       <c r="F84">
-        <v>74.519300977538052</v>
+        <v>52.915198812590219</v>
       </c>
       <c r="G84">
-        <v>144.40781895870646</v>
+        <v>122.14864346219041</v>
       </c>
       <c r="H84">
-        <v>7.1041835309150603</v>
+        <v>4.9385745900124114</v>
       </c>
       <c r="I84">
-        <v>13.766898450792464</v>
+        <v>11.400130781769436</v>
       </c>
       <c r="J84">
-        <v>5.0420237747107473E-2</v>
+        <v>4.8419452316139887E-2</v>
       </c>
       <c r="K84">
         <v>1</v>
       </c>
       <c r="L84" s="1">
-        <v>198669523.75017956</v>
+        <v>193522555.84371191</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -3638,28 +3638,28 @@
         <v>4</v>
       </c>
       <c r="E85">
-        <v>0.87927373763700534</v>
+        <v>0.89271056753363331</v>
       </c>
       <c r="F85">
-        <v>56.571438456954738</v>
+        <v>76.751303362295857</v>
       </c>
       <c r="G85">
-        <v>124.78673385484674</v>
+        <v>149.20155839741756</v>
       </c>
       <c r="H85">
-        <v>5.6190867263343884</v>
+        <v>7.4733418488130425</v>
       </c>
       <c r="I85">
-        <v>12.394726012843488</v>
+        <v>14.527886842730872</v>
       </c>
       <c r="J85">
-        <v>5.1558743974253904E-2</v>
+        <v>4.9286814358396804E-2</v>
       </c>
       <c r="K85">
         <v>1</v>
       </c>
       <c r="L85" s="1">
-        <v>195211980.31026959</v>
+        <v>199651493.38255635</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -3676,28 +3676,28 @@
         <v>5</v>
       </c>
       <c r="E86">
-        <v>0.67579973958793182</v>
+        <v>0.70355089527194159</v>
       </c>
       <c r="F86">
-        <v>15.137715345020755</v>
+        <v>12.48162020882328</v>
       </c>
       <c r="G86">
-        <v>86.368782789203522</v>
+        <v>81.611321733631584</v>
       </c>
       <c r="H86">
-        <v>1.3444889069146992</v>
+        <v>1.1682428420313851</v>
       </c>
       <c r="I86">
-        <v>7.6710301202753994</v>
+        <v>7.6385790345261571</v>
       </c>
       <c r="J86">
-        <v>4.7437148131852201E-2</v>
+        <v>5.0886296320798052E-2</v>
       </c>
       <c r="K86">
         <v>1</v>
       </c>
       <c r="L86" s="1">
-        <v>230046533.49378806</v>
+        <v>229672906.14966941</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -3714,28 +3714,28 @@
         <v>5</v>
       </c>
       <c r="E87">
-        <v>0.68595194731765718</v>
+        <v>0.67872229728616273</v>
       </c>
       <c r="F87">
-        <v>11.580677170325046</v>
+        <v>10.406896840097925</v>
       </c>
       <c r="G87">
-        <v>80.683152115267362</v>
+        <v>78.826279264765333</v>
       </c>
       <c r="H87">
-        <v>1.1062811622016817</v>
+        <v>0.98121004344981466</v>
       </c>
       <c r="I87">
-        <v>7.7075157159974399</v>
+        <v>7.4321037376248107</v>
       </c>
       <c r="J87">
-        <v>4.9632950763644261E-2</v>
+        <v>4.9600147884516756E-2</v>
       </c>
       <c r="K87">
         <v>1</v>
       </c>
       <c r="L87" s="1">
-        <v>229565857.62979215</v>
+        <v>229228203.61165529</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -3752,28 +3752,28 @@
         <v>5</v>
       </c>
       <c r="E88">
-        <v>0.7754852175050857</v>
+        <v>0.70516509841235531</v>
       </c>
       <c r="F88">
-        <v>26.336236787232558</v>
+        <v>17.626592408296613</v>
       </c>
       <c r="G88">
-        <v>101.72388094511898</v>
+        <v>89.477210138685734</v>
       </c>
       <c r="H88">
-        <v>2.6097853301801908</v>
+        <v>1.713734882947453</v>
       </c>
       <c r="I88">
-        <v>10.080312322687938</v>
+        <v>8.6993681303545642</v>
       </c>
       <c r="J88">
-        <v>5.1433177556322617E-2</v>
+        <v>4.9071610007474273E-2</v>
       </c>
       <c r="K88">
         <v>1</v>
       </c>
       <c r="L88" s="1">
-        <v>233351381.4391596</v>
+        <v>231105444.39616916</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -3790,28 +3790,28 @@
         <v>5</v>
       </c>
       <c r="E89">
-        <v>0.64147755959559194</v>
+        <v>0.71021429138819436</v>
       </c>
       <c r="F89">
-        <v>8.6839516365222078</v>
+        <v>15.451697368066243</v>
       </c>
       <c r="G89">
-        <v>75.63361673537581</v>
+        <v>86.203171851245855</v>
       </c>
       <c r="H89">
-        <v>0.76174446991524514</v>
+        <v>1.5176762778514277</v>
       </c>
       <c r="I89">
-        <v>6.6344783687596625</v>
+        <v>8.4669344653725105</v>
       </c>
       <c r="J89">
-        <v>4.7907450966963618E-2</v>
+        <v>5.0190776699433996E-2</v>
       </c>
       <c r="K89">
         <v>1</v>
       </c>
       <c r="L89" s="1">
-        <v>228544849.77475193</v>
+        <v>230633701.84425718</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -3828,28 +3828,28 @@
         <v>5</v>
       </c>
       <c r="E90">
-        <v>0.64651180401729991</v>
+        <v>0.7101844648063903</v>
       </c>
       <c r="F90">
-        <v>15.371424239822497</v>
+        <v>16.520969594936453</v>
       </c>
       <c r="G90">
-        <v>84.264223745750769</v>
+        <v>89.975238944753414</v>
       </c>
       <c r="H90">
-        <v>1.3550286370238747</v>
+        <v>1.5488403037878364</v>
       </c>
       <c r="I90">
-        <v>7.4280973884172745</v>
+        <v>8.4351754066109379</v>
       </c>
       <c r="J90">
-        <v>4.6921580241609022E-2</v>
+        <v>4.8341946022512669E-2</v>
       </c>
       <c r="K90">
         <v>1</v>
       </c>
       <c r="L90" s="1">
-        <v>229997734.71107095</v>
+        <v>230689319.99906451</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -3866,29 +3866,32 @@
         <v>5</v>
       </c>
       <c r="E91">
-        <v>0.70601427009915851</v>
+        <v>0.70234169801870605</v>
       </c>
       <c r="F91">
-        <v>21.744855655348836</v>
+        <v>13.633109530509831</v>
       </c>
       <c r="G91">
-        <v>93.101847918499445</v>
+        <v>80.921087661450414</v>
       </c>
       <c r="H91">
-        <v>2.0854333270914398</v>
+        <v>1.3991201990270603</v>
       </c>
       <c r="I91">
-        <v>8.9289025202279646</v>
+        <v>8.3046591843923014</v>
       </c>
       <c r="J91">
-        <v>4.9470573780318265E-2</v>
+        <v>5.2189240747579656E-2</v>
       </c>
       <c r="K91">
         <v>1</v>
       </c>
       <c r="L91" s="1">
-        <v>231937416.38869998</v>
-      </c>
+        <v>230341623.34717453</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L92" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/eco.xlsx
+++ b/eco.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dante\Desktop\matlab_service_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD767559-6A3C-4CF1-B9AD-4464BE848B78}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90788951-5E2A-4202-B719-725A287FE9EF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{74E22F7A-001F-4641-B104-56132BF408EC}"/>
+    <workbookView xWindow="2340" yWindow="2940" windowWidth="15375" windowHeight="7875" xr2:uid="{74E22F7A-001F-4641-B104-56132BF408EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -422,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2876A863-43C8-4218-9B12-44730E103D8B}">
   <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="O78" sqref="O78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:L91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,28 +484,28 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>0.80628852443659049</v>
+        <v>0.84548462809392</v>
       </c>
       <c r="F2">
-        <v>54.665907010528734</v>
+        <v>99.536045101910702</v>
       </c>
       <c r="G2">
-        <v>105.76320779160827</v>
+        <v>149.46043033069614</v>
       </c>
       <c r="H2">
-        <v>4.9625028916239255</v>
+        <v>9.5030521231813321</v>
       </c>
       <c r="I2">
-        <v>9.601052158380746</v>
+        <v>12.469506672999744</v>
       </c>
       <c r="J2">
-        <v>4.7306666747743822E-2</v>
+        <v>5.0683089248726783E-2</v>
       </c>
       <c r="K2">
-        <v>0.996</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="L2" s="1">
-        <v>148039709.63191205</v>
+        <v>158222154.60500503</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -522,28 +522,28 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>0.84540905238045161</v>
+        <v>0.82113301581677367</v>
       </c>
       <c r="F3">
-        <v>55.133877124565508</v>
+        <v>91.677925778930557</v>
       </c>
       <c r="G3">
-        <v>107.41570346158208</v>
+        <v>140.45723127735161</v>
       </c>
       <c r="H3">
-        <v>5.0397831539218698</v>
+        <v>8.9688185023300839</v>
       </c>
       <c r="I3">
-        <v>9.8188605809320677</v>
+        <v>11.940880413285704</v>
       </c>
       <c r="J3">
-        <v>4.8510684014602908E-2</v>
+        <v>5.0415175455890762E-2</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="L3" s="1">
-        <v>148261760.4364709</v>
+        <v>156968437.8057678</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -560,28 +560,28 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>0.80826306638924816</v>
+        <v>0.88215005288606074</v>
       </c>
       <c r="F4">
-        <v>48.175176927566156</v>
+        <v>102.88651806112811</v>
       </c>
       <c r="G4">
-        <v>96.574676167256214</v>
+        <v>154.70057047430493</v>
       </c>
       <c r="H4">
-        <v>4.5324962568970051</v>
+        <v>10.05193843780456</v>
       </c>
       <c r="I4">
-        <v>9.0860975746341364</v>
+        <v>13.014133902141204</v>
       </c>
       <c r="J4">
-        <v>5.0099468739529848E-2</v>
+        <v>5.1075915420681496E-2</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" s="1">
-        <v>147003426.88639215</v>
+        <v>159510650.74067992</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -598,28 +598,28 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>0.83642620135653811</v>
+        <v>0.88411721594610382</v>
       </c>
       <c r="F5">
-        <v>52.436966364507434</v>
+        <v>71.22241779838744</v>
       </c>
       <c r="G5">
-        <v>99.840255013370637</v>
+        <v>124.72024395402798</v>
       </c>
       <c r="H5">
-        <v>5.2612188399020781</v>
+        <v>7.0010206879820247</v>
       </c>
       <c r="I5">
-        <v>10.017387867283572</v>
+        <v>9.9597496002457397</v>
       </c>
       <c r="J5">
-        <v>5.2934694524190758E-2</v>
+        <v>4.9578680825681759E-2</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" s="1">
-        <v>148773808.95029134</v>
+        <v>152340546.72491685</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -636,28 +636,28 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>0.79392833811410435</v>
+        <v>0.84973798547952528</v>
       </c>
       <c r="F6">
-        <v>44.700206602509631</v>
+        <v>62.226790150818523</v>
       </c>
       <c r="G6">
-        <v>94.584905426392069</v>
+        <v>112.74924386242657</v>
       </c>
       <c r="H6">
-        <v>4.111891810362633</v>
+        <v>5.8643957330142928</v>
       </c>
       <c r="I6">
-        <v>8.7006957588618867</v>
+        <v>8.8257478974062966</v>
       </c>
       <c r="J6">
-        <v>4.7745803232193289E-2</v>
+        <v>5.0457049671221034E-2</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" s="1">
-        <v>146026133.0271534</v>
+        <v>149669912.05879495</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -674,28 +674,28 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>0.84595745122395227</v>
+        <v>0.84985592044224456</v>
       </c>
       <c r="F7">
-        <v>75.317163222249718</v>
+        <v>58.481166239916817</v>
       </c>
       <c r="G7">
-        <v>127.25911880520262</v>
+        <v>109.62259179596307</v>
       </c>
       <c r="H7">
-        <v>7.3747319492583845</v>
+        <v>5.752060151548239</v>
       </c>
       <c r="I7">
-        <v>12.460664331154071</v>
+        <v>8.6822019039799407</v>
       </c>
       <c r="J7">
-        <v>4.8859776748659302E-2</v>
+        <v>4.9853279090404712E-2</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7" s="1">
-        <v>153838053.9876081</v>
+        <v>149397067.62643707</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -712,28 +712,28 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>0.64494472876415709</v>
+        <v>0.60544177710315394</v>
       </c>
       <c r="F8">
-        <v>15.10297060486436</v>
+        <v>7.9032910208045113</v>
       </c>
       <c r="G8">
-        <v>65.951752813714776</v>
+        <v>56.675010903428571</v>
       </c>
       <c r="H8">
-        <v>1.4534087900267385</v>
+        <v>0.71492342504371265</v>
       </c>
       <c r="I8">
-        <v>6.346755202334224</v>
+        <v>5.1267621049015064</v>
       </c>
       <c r="J8">
-        <v>5.0734330361359395E-2</v>
+        <v>4.9655150858754521E-2</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8" s="1">
-        <v>184875199.08865881</v>
+        <v>183000044.42311931</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -750,28 +750,28 @@
         <v>4</v>
       </c>
       <c r="E9">
-        <v>0.62459152179692556</v>
+        <v>0.60978993789312386</v>
       </c>
       <c r="F9">
-        <v>6.8747882821867492</v>
+        <v>7.7768498922698379</v>
       </c>
       <c r="G9">
-        <v>56.490123765609283</v>
+        <v>57.262273365149625</v>
       </c>
       <c r="H9">
-        <v>0.66111933769272957</v>
+        <v>0.71931621894191144</v>
       </c>
       <c r="I9">
-        <v>5.4324164871911664</v>
+        <v>4.6964481166056675</v>
       </c>
       <c r="J9">
-        <v>5.0354715187251944E-2</v>
+        <v>4.9290469402757942E-2</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9" s="1">
-        <v>182977944.89588675</v>
+        <v>182884004.57070759</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -788,28 +788,28 @@
         <v>4</v>
       </c>
       <c r="E10">
-        <v>0.63214750790124286</v>
+        <v>0.64019552532349333</v>
       </c>
       <c r="F10">
-        <v>9.6468463644313829</v>
+        <v>11.39177747995832</v>
       </c>
       <c r="G10">
-        <v>60.611451193443095</v>
+        <v>62.377147204487365</v>
       </c>
       <c r="H10">
-        <v>0.85395806572538369</v>
+        <v>1.0733883009053404</v>
       </c>
       <c r="I10">
-        <v>5.3654464543773264</v>
+        <v>4.9774761156405605</v>
       </c>
       <c r="J10">
-        <v>4.9614630390807296E-2</v>
+        <v>5.0225821939307858E-2</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10" s="1">
-        <v>183355789.08915582</v>
+        <v>183694467.37798825</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -826,28 +826,28 @@
         <v>4</v>
       </c>
       <c r="E11">
-        <v>0.63085942184018107</v>
+        <v>0.64304882805070918</v>
       </c>
       <c r="F11">
-        <v>12.533397462655916</v>
+        <v>9.4168325133864492</v>
       </c>
       <c r="G11">
-        <v>61.80032207347184</v>
+        <v>60.349435996586834</v>
       </c>
       <c r="H11">
-        <v>1.2407048897986175</v>
+        <v>0.86824001241057835</v>
       </c>
       <c r="I11">
-        <v>6.1177316059868865</v>
+        <v>4.8642696187026973</v>
       </c>
       <c r="J11">
-        <v>5.1219711952686722E-2</v>
+        <v>5.0501940531103164E-2</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11" s="1">
-        <v>184370413.87345529</v>
+        <v>183239020.4168967</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -864,28 +864,28 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>0.62342737193682496</v>
+        <v>0.6329106722157698</v>
       </c>
       <c r="F12">
-        <v>7.7742807326549359</v>
+        <v>8.6053082368917391</v>
       </c>
       <c r="G12">
-        <v>59.048126473708265</v>
+        <v>58.068639709229885</v>
       </c>
       <c r="H12">
-        <v>0.69814148514876939</v>
+        <v>0.82188570383071391</v>
       </c>
       <c r="I12">
-        <v>5.3026058781812191</v>
+        <v>4.746086613528588</v>
       </c>
       <c r="J12">
-        <v>4.8635117021282176E-2</v>
+        <v>5.118221141814671E-2</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12" s="1">
-        <v>183017043.45958909</v>
+        <v>183108930.53944248</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -902,28 +902,28 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <v>0.69368362602040168</v>
+        <v>0.6533280007371367</v>
       </c>
       <c r="F13">
-        <v>12.196382053687962</v>
+        <v>10.685429401967445</v>
       </c>
       <c r="G13">
-        <v>63.718749922153854</v>
+        <v>61.785744360033455</v>
       </c>
       <c r="H13">
-        <v>1.2137536080225244</v>
+        <v>1.0217647610407539</v>
       </c>
       <c r="I13">
-        <v>6.3411315155803383</v>
+        <v>5.0080916589211544</v>
       </c>
       <c r="J13">
-        <v>5.3854949197314921E-2</v>
+        <v>5.1140819877393835E-2</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13" s="1">
-        <v>184378942.34400326</v>
+        <v>183596740.50827497</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -940,28 +940,28 @@
         <v>5</v>
       </c>
       <c r="E14">
-        <v>0.49096852130908453</v>
+        <v>0.52389607913305913</v>
       </c>
       <c r="F14">
-        <v>3.4048163483208844</v>
+        <v>3.604157389123134</v>
       </c>
       <c r="G14">
-        <v>53.763481183478028</v>
+        <v>53.862251518769064</v>
       </c>
       <c r="H14">
-        <v>0.30889369135653383</v>
+        <v>0.34354901255017756</v>
       </c>
       <c r="I14">
-        <v>4.8775612144637597</v>
+        <v>5.1341607275104</v>
       </c>
       <c r="J14">
-        <v>4.8747174187025136E-2</v>
+        <v>5.2120567662356614E-2</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14" s="1">
-        <v>227100852.23359194</v>
+        <v>227245612.97567299</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -978,28 +978,28 @@
         <v>5</v>
       </c>
       <c r="E15">
-        <v>0.50433548531814765</v>
+        <v>0.48607504415683184</v>
       </c>
       <c r="F15">
-        <v>1.9515687539785485</v>
+        <v>1.1983511045405431</v>
       </c>
       <c r="G15">
-        <v>51.491293286248414</v>
+        <v>48.776784236703087</v>
       </c>
       <c r="H15">
-        <v>0.18699482502661252</v>
+        <v>0.1135676595413721</v>
       </c>
       <c r="I15">
-        <v>4.9337771773742221</v>
+        <v>4.6225728041872456</v>
       </c>
       <c r="J15">
-        <v>5.0902128552372833E-2</v>
+        <v>5.1081447218598079E-2</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15" s="1">
-        <v>226865413.20513853</v>
+        <v>226623598.9543072</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1016,28 +1016,28 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>0.52756741197382062</v>
+        <v>0.52903487432038832</v>
       </c>
       <c r="F16">
-        <v>4.0434644770939308</v>
+        <v>2.64580780375131</v>
       </c>
       <c r="G16">
-        <v>55.129955897401672</v>
+        <v>54.501270881465238</v>
       </c>
       <c r="H16">
-        <v>0.38400765153687122</v>
+        <v>0.23924919584078841</v>
       </c>
       <c r="I16">
-        <v>5.2356895957468073</v>
+        <v>4.9283191364859844</v>
       </c>
       <c r="J16">
-        <v>5.16347274305183E-2</v>
+        <v>5.1010524535046835E-2</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16" s="1">
-        <v>227358644.40409029</v>
+        <v>226971376.01625296</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1054,28 +1054,28 @@
         <v>5</v>
       </c>
       <c r="E17">
-        <v>0.53868489217604143</v>
+        <v>0.48962479862070174</v>
       </c>
       <c r="F17">
-        <v>3.6915147171211724</v>
+        <v>3.4028728810513615</v>
       </c>
       <c r="G17">
-        <v>56.122748778118044</v>
+        <v>55.222198250182785</v>
       </c>
       <c r="H17">
-        <v>0.35382738813007686</v>
+        <v>0.29423915029711795</v>
       </c>
       <c r="I17">
-        <v>5.3793001346417624</v>
+        <v>4.7749455412076935</v>
       </c>
       <c r="J17">
-        <v>5.1370609697013049E-2</v>
+        <v>4.7243455519045595E-2</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17" s="1">
-        <v>227338392.95270419</v>
+        <v>227041381.26713356</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1092,28 +1092,28 @@
         <v>5</v>
       </c>
       <c r="E18">
-        <v>0.49258749961011938</v>
+        <v>0.48526053378618383</v>
       </c>
       <c r="F18">
-        <v>2.8127561121302489</v>
+        <v>2.251610288461813</v>
       </c>
       <c r="G18">
-        <v>51.803014942672185</v>
+        <v>52.644964442564707</v>
       </c>
       <c r="H18">
-        <v>0.25492621386424402</v>
+        <v>0.19928960079103269</v>
       </c>
       <c r="I18">
-        <v>4.6950200940410429</v>
+        <v>4.6595958462173135</v>
       </c>
       <c r="J18">
-        <v>5.0274025017298614E-2</v>
+        <v>4.8147274767845083E-2</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18" s="1">
-        <v>226936041.16233096</v>
+        <v>226811974.45124</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1130,28 +1130,28 @@
         <v>5</v>
       </c>
       <c r="E19">
-        <v>0.49639440669614937</v>
+        <v>0.50788856830778895</v>
       </c>
       <c r="F19">
-        <v>1.5346567942553409</v>
+        <v>3.1613601597972925</v>
       </c>
       <c r="G19">
-        <v>49.686238740644924</v>
+        <v>52.805050261457239</v>
       </c>
       <c r="H19">
-        <v>0.14256354961365966</v>
+        <v>0.29642458206921168</v>
       </c>
       <c r="I19">
-        <v>4.6156551668968833</v>
+        <v>4.9512596362636003</v>
       </c>
       <c r="J19">
-        <v>5.1544973875294373E-2</v>
+        <v>5.1153385985987294E-2</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19" s="1">
-        <v>226681114.63701829</v>
+        <v>227095722.24888846</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1168,28 +1168,28 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>0.92745575816273718</v>
+        <v>0.90962997278477065</v>
       </c>
       <c r="F20">
-        <v>145.44186474979983</v>
+        <v>134.4708755894286</v>
       </c>
       <c r="G20">
-        <v>203.60767109245134</v>
+        <v>191.08815097919239</v>
       </c>
       <c r="H20">
-        <v>13.901836858382621</v>
+        <v>13.20523913052816</v>
       </c>
       <c r="I20">
-        <v>19.461525960986286</v>
+        <v>16.165139422421319</v>
       </c>
       <c r="J20">
-        <v>4.7731973936408593E-2</v>
+        <v>4.8341059279152269E-2</v>
       </c>
       <c r="K20">
-        <v>0.98399999999999999</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="L20" s="1">
-        <v>169315036.65583068</v>
+        <v>166921265.04445243</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1206,28 +1206,28 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>0.92245361899412481</v>
+        <v>0.91496705636184494</v>
       </c>
       <c r="F21">
-        <v>114.50596095784749</v>
+        <v>150.99940348658251</v>
       </c>
       <c r="G21">
-        <v>168.70948710820815</v>
+        <v>206.38761360181556</v>
       </c>
       <c r="H21">
-        <v>11.680877444957556</v>
+        <v>14.658785145301733</v>
       </c>
       <c r="I21">
-        <v>17.210238019294742</v>
+        <v>17.635785669242015</v>
       </c>
       <c r="J21">
-        <v>5.1215604665143813E-2</v>
+        <v>4.9489004414542077E-2</v>
       </c>
       <c r="K21">
-        <v>0.998</v>
+        <v>0.99</v>
       </c>
       <c r="L21" s="1">
-        <v>164085650.07103294</v>
+        <v>170341643.86727023</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1244,28 +1244,28 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>0.89548847934348486</v>
+        <v>0.91135157794905586</v>
       </c>
       <c r="F22">
-        <v>117.71102013337612</v>
+        <v>156.15829791025163</v>
       </c>
       <c r="G22">
-        <v>174.27498404209254</v>
+        <v>211.05090070197008</v>
       </c>
       <c r="H22">
-        <v>10.988784309905041</v>
+        <v>15.283004296967611</v>
       </c>
       <c r="I22">
-        <v>16.26925166463402</v>
+        <v>18.25527010393559</v>
       </c>
       <c r="J22">
-        <v>4.761170764167915E-2</v>
+        <v>4.9527682313282029E-2</v>
       </c>
       <c r="K22">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
       <c r="L22" s="1">
-        <v>162388154.73813736</v>
+        <v>171807166.56683412</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1282,28 +1282,28 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>0.96389627757754914</v>
+        <v>0.9063299198847492</v>
       </c>
       <c r="F23">
-        <v>241.88678383489506</v>
+        <v>96.84468340590918</v>
       </c>
       <c r="G23">
-        <v>300.85100147294111</v>
+        <v>152.74027282818793</v>
       </c>
       <c r="H23">
-        <v>24.24224423153559</v>
+        <v>9.0118128382687601</v>
       </c>
       <c r="I23">
-        <v>30.151723626154418</v>
+        <v>11.913136985790898</v>
       </c>
       <c r="J23">
-        <v>4.8662259167965162E-2</v>
+        <v>4.8644084224837236E-2</v>
       </c>
       <c r="K23">
-        <v>0.97399999999999998</v>
+        <v>1</v>
       </c>
       <c r="L23" s="1">
-        <v>193716434.10075474</v>
+        <v>157049553.96527621</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1320,28 +1320,28 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>0.91109366649648971</v>
+        <v>0.89876970058075834</v>
       </c>
       <c r="F24">
-        <v>131.39250580459444</v>
+        <v>101.24625954225341</v>
       </c>
       <c r="G24">
-        <v>186.94453868057204</v>
+        <v>154.22826425270333</v>
       </c>
       <c r="H24">
-        <v>13.034284942690363</v>
+        <v>9.812182235519435</v>
       </c>
       <c r="I24">
-        <v>18.545109332690512</v>
+        <v>12.746881411296156</v>
       </c>
       <c r="J24">
-        <v>4.915450866881009E-2</v>
+        <v>5.0891035861662472E-2</v>
       </c>
       <c r="K24">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="L24" s="1">
-        <v>167261536.57206157</v>
+        <v>158939291.57517356</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1358,28 +1358,28 @@
         <v>3</v>
       </c>
       <c r="E25">
-        <v>0.96438880458433829</v>
+        <v>0.95091265175593975</v>
       </c>
       <c r="F25">
-        <v>241.5152060456557</v>
+        <v>213.44513576495402</v>
       </c>
       <c r="G25">
-        <v>297.63031737726834</v>
+        <v>271.17497640411841</v>
       </c>
       <c r="H25">
-        <v>24.840065344214619</v>
+        <v>21.826007375441513</v>
       </c>
       <c r="I25">
-        <v>30.611557148385469</v>
+        <v>24.729219566517081</v>
       </c>
       <c r="J25">
-        <v>5.1538885834757797E-2</v>
+        <v>4.9507012736433473E-2</v>
       </c>
       <c r="K25">
-        <v>0.97899999999999998</v>
+        <v>0.997</v>
       </c>
       <c r="L25" s="1">
-        <v>195080080.59173003</v>
+        <v>187163136.9501144</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1396,28 +1396,28 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>0.66623855651946129</v>
+        <v>0.6702242439170818</v>
       </c>
       <c r="F26">
-        <v>11.853240848177702</v>
+        <v>17.838857758352077</v>
       </c>
       <c r="G26">
-        <v>67.862724354667151</v>
+        <v>70.992455937701891</v>
       </c>
       <c r="H26">
-        <v>1.0553415772858381</v>
+        <v>1.6851406407710416</v>
       </c>
       <c r="I26">
-        <v>6.0420905536884435</v>
+        <v>5.6062742642677135</v>
       </c>
       <c r="J26">
-        <v>4.7580410659724619E-2</v>
+        <v>5.043679200460708E-2</v>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="L26" s="1">
-        <v>183968104.00475746</v>
+        <v>185136966.59324777</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1434,28 +1434,28 @@
         <v>4</v>
       </c>
       <c r="E27">
-        <v>0.70851918882704956</v>
+        <v>0.6778343440344633</v>
       </c>
       <c r="F27">
-        <v>20.571067386303223</v>
+        <v>15.159691939388869</v>
       </c>
       <c r="G27">
-        <v>75.410949131314851</v>
+        <v>69.983311334114191</v>
       </c>
       <c r="H27">
-        <v>2.078156752961954</v>
+        <v>1.383508711361167</v>
       </c>
       <c r="I27">
-        <v>7.6182616216044279</v>
+        <v>5.2868396051688453</v>
       </c>
       <c r="J27">
-        <v>5.1679118647370147E-2</v>
+        <v>4.9455643499500823E-2</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27" s="1">
-        <v>186531209.21674278</v>
+        <v>184423318.89548445</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1472,28 +1472,28 @@
         <v>4</v>
       </c>
       <c r="E28">
-        <v>0.67491551433233143</v>
+        <v>0.65237401783537308</v>
       </c>
       <c r="F28">
-        <v>14.877440454142738</v>
+        <v>13.626572081614546</v>
       </c>
       <c r="G28">
-        <v>69.815976322771121</v>
+        <v>66.135796971758822</v>
       </c>
       <c r="H28">
-        <v>1.3542234177327339</v>
+        <v>1.3057438194786024</v>
       </c>
       <c r="I28">
-        <v>6.3550198946918695</v>
+        <v>5.2373537838383388</v>
       </c>
       <c r="J28">
-        <v>4.9139679728358296E-2</v>
+        <v>4.9695954887943594E-2</v>
       </c>
       <c r="K28">
         <v>1</v>
       </c>
       <c r="L28" s="1">
-        <v>184673979.42656887</v>
+        <v>184248710.49232039</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1510,28 +1510,28 @@
         <v>4</v>
       </c>
       <c r="E29">
-        <v>0.66415623622673559</v>
+        <v>0.67434694291485175</v>
       </c>
       <c r="F29">
-        <v>16.817039665588226</v>
+        <v>13.524776747073028</v>
       </c>
       <c r="G29">
-        <v>70.743518037736564</v>
+        <v>68.404433088409021</v>
       </c>
       <c r="H29">
-        <v>1.5333809272361141</v>
+        <v>1.2451935550281408</v>
       </c>
       <c r="I29">
-        <v>6.4504076485363369</v>
+        <v>5.1978310703335069</v>
       </c>
       <c r="J29">
-        <v>4.9263831518414576E-2</v>
+        <v>4.9150959599353443E-2</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29" s="1">
-        <v>185070576.01808384</v>
+        <v>184112740.76142025</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1548,28 +1548,28 @@
         <v>4</v>
       </c>
       <c r="E30">
-        <v>0.67332973310603239</v>
+        <v>0.7513325900649569</v>
       </c>
       <c r="F30">
-        <v>15.763986870449255</v>
+        <v>22.038948005051346</v>
       </c>
       <c r="G30">
-        <v>71.114767424253372</v>
+        <v>78.039161124129421</v>
       </c>
       <c r="H30">
-        <v>1.416690007173119</v>
+        <v>2.2441765892152894</v>
       </c>
       <c r="I30">
-        <v>6.3909962118300738</v>
+        <v>6.1465525485440828</v>
       </c>
       <c r="J30">
-        <v>4.8659095779255965E-2</v>
+        <v>5.3666409337931105E-2</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="L30" s="1">
-        <v>184813247.46149477</v>
+        <v>186444031.48531887</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1586,28 +1586,28 @@
         <v>4</v>
       </c>
       <c r="E31">
-        <v>0.69182630939725898</v>
+        <v>0.71791361317252389</v>
       </c>
       <c r="F31">
-        <v>15.360943673638602</v>
+        <v>26.555984214308179</v>
       </c>
       <c r="G31">
-        <v>72.67788155761977</v>
+        <v>83.480704635864612</v>
       </c>
       <c r="H31">
-        <v>1.4322559622272031</v>
+        <v>2.5359467223692844</v>
       </c>
       <c r="I31">
-        <v>6.7764931240247464</v>
+        <v>6.4719364793241381</v>
       </c>
       <c r="J31">
-        <v>4.8280758528840263E-2</v>
+        <v>5.0446527122558246E-2</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="L31" s="1">
-        <v>184957619.24086869</v>
+        <v>187140680.3691707</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1624,28 +1624,28 @@
         <v>5</v>
       </c>
       <c r="E32">
-        <v>0.54376008546428356</v>
+        <v>0.54684960822688899</v>
       </c>
       <c r="F32">
-        <v>3.7138934218966857</v>
+        <v>3.3093660483454443</v>
       </c>
       <c r="G32">
-        <v>59.1594386481421</v>
+        <v>57.823144154456564</v>
       </c>
       <c r="H32">
-        <v>0.34105853507074041</v>
+        <v>0.31404564436458426</v>
       </c>
       <c r="I32">
-        <v>5.4327976570308731</v>
+        <v>5.4871858536928571</v>
       </c>
       <c r="J32">
-        <v>4.9035507112922393E-2</v>
+        <v>5.0157008670582842E-2</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="L32" s="1">
-        <v>227328545.32673928</v>
+        <v>227288332.18691984</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -1662,28 +1662,28 @@
         <v>5</v>
       </c>
       <c r="E33">
-        <v>0.57098772022154454</v>
+        <v>0.54456940511358898</v>
       </c>
       <c r="F33">
-        <v>6.4845210189794793</v>
+        <v>6.1845858447317656</v>
       </c>
       <c r="G33">
-        <v>62.515249937119457</v>
+        <v>61.179853142845545</v>
       </c>
       <c r="H33">
-        <v>0.59298968603434865</v>
+        <v>0.5565748776383258</v>
       </c>
       <c r="I33">
-        <v>5.7168290956369585</v>
+        <v>5.5058123747956236</v>
       </c>
       <c r="J33">
-        <v>5.0953086926260487E-2</v>
+        <v>4.9510569897008805E-2</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
       <c r="L33" s="1">
-        <v>227929205.62277773</v>
+        <v>227793362.61041144</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -1700,28 +1700,28 @@
         <v>5</v>
       </c>
       <c r="E34">
-        <v>0.56372534453762424</v>
+        <v>0.53412428212728236</v>
       </c>
       <c r="F34">
-        <v>3.1839752685914853</v>
+        <v>3.4905606398651141</v>
       </c>
       <c r="G34">
-        <v>58.852220167228609</v>
+        <v>57.400593200056484</v>
       </c>
       <c r="H34">
-        <v>0.29922778011602547</v>
+        <v>0.3193439936620886</v>
       </c>
       <c r="I34">
-        <v>5.5308906979449439</v>
+        <v>5.2514585942810932</v>
       </c>
       <c r="J34">
-        <v>5.0632577474292277E-2</v>
+        <v>4.9538486322645452E-2</v>
       </c>
       <c r="K34">
         <v>1</v>
       </c>
       <c r="L34" s="1">
-        <v>227270361.97580802</v>
+        <v>227230876.80151504</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1738,28 +1738,28 @@
         <v>5</v>
       </c>
       <c r="E35">
-        <v>0.48397224055961052</v>
+        <v>0.5441002370957303</v>
       </c>
       <c r="F35">
-        <v>3.5840643075580223</v>
+        <v>3.8186085805086649</v>
       </c>
       <c r="G35">
-        <v>54.786523582294279</v>
+        <v>57.831548686279241</v>
       </c>
       <c r="H35">
-        <v>0.31230202436121318</v>
+        <v>0.3429189573957302</v>
       </c>
       <c r="I35">
-        <v>4.7738937569793753</v>
+        <v>5.193392818867439</v>
       </c>
       <c r="J35">
-        <v>4.72606440603534E-2</v>
+        <v>5.0367581919281597E-2</v>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="L35" s="1">
-        <v>227078260.20991808</v>
+        <v>227262209.6003485</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -1776,28 +1776,28 @@
         <v>5</v>
       </c>
       <c r="E36">
-        <v>0.56589704785185679</v>
+        <v>0.56748961718112967</v>
       </c>
       <c r="F36">
-        <v>6.0685693728684456</v>
+        <v>4.652401701931872</v>
       </c>
       <c r="G36">
-        <v>61.787828503766676</v>
+        <v>59.401635180294349</v>
       </c>
       <c r="H36">
-        <v>0.5727637739057968</v>
+        <v>0.44595416835842305</v>
       </c>
       <c r="I36">
-        <v>5.8316594341795867</v>
+        <v>5.6939207990055296</v>
       </c>
       <c r="J36">
-        <v>5.0781099450947893E-2</v>
+        <v>5.1826261403769912E-2</v>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="L36" s="1">
-        <v>227921040.59352419</v>
+        <v>227619465.73713416</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -1814,28 +1814,28 @@
         <v>5</v>
       </c>
       <c r="E37">
-        <v>0.55851310873326865</v>
+        <v>0.56061375550033132</v>
       </c>
       <c r="F37">
-        <v>3.6671744451627735</v>
+        <v>8.0544728134293901</v>
       </c>
       <c r="G37">
-        <v>59.129419436423653</v>
+        <v>62.513854146124309</v>
       </c>
       <c r="H37">
-        <v>0.34193375116850822</v>
+        <v>0.76853322861133744</v>
       </c>
       <c r="I37">
-        <v>5.5133303568314469</v>
+        <v>5.9648812867993595</v>
       </c>
       <c r="J37">
-        <v>5.0350748407432179E-2</v>
+        <v>5.147081565942848E-2</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
       <c r="L37" s="1">
-        <v>227353289.19684109</v>
+        <v>228362638.81629708</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -1852,28 +1852,28 @@
         <v>3</v>
       </c>
       <c r="E38">
-        <v>0.93130926784362433</v>
+        <v>0.91112217570717569</v>
       </c>
       <c r="F38">
-        <v>193.33102702082928</v>
+        <v>113.95094188406361</v>
       </c>
       <c r="G38">
-        <v>253.57183197539959</v>
+        <v>172.5563049148503</v>
       </c>
       <c r="H38">
-        <v>18.265178520015517</v>
+        <v>10.619822095980767</v>
       </c>
       <c r="I38">
-        <v>23.956500154416787</v>
+        <v>13.58163328390887</v>
       </c>
       <c r="J38">
-        <v>4.5555757540160835E-2</v>
+        <v>4.6470829308054053E-2</v>
       </c>
       <c r="K38">
-        <v>0.95099999999999996</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="L38" s="1">
-        <v>179608010.70856968</v>
+        <v>160846792.42025137</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -1890,28 +1890,28 @@
         <v>3</v>
       </c>
       <c r="E39">
-        <v>0.93772318200774352</v>
+        <v>0.96184065591801937</v>
       </c>
       <c r="F39">
-        <v>222.37823899017272</v>
+        <v>247.08184521102174</v>
       </c>
       <c r="G39">
-        <v>281.11835481279712</v>
+        <v>308.62626508656706</v>
       </c>
       <c r="H39">
-        <v>22.506484909635368</v>
+        <v>23.376724572996597</v>
       </c>
       <c r="I39">
-        <v>28.451461973738088</v>
+        <v>26.299519652120011</v>
       </c>
       <c r="J39">
-        <v>4.8275435220755072E-2</v>
+        <v>4.7443925472949414E-2</v>
       </c>
       <c r="K39">
-        <v>0.93400000000000005</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="L39" s="1">
-        <v>189647874.57508922</v>
+        <v>190813794.64251456</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -1928,28 +1928,28 @@
         <v>3</v>
       </c>
       <c r="E40">
-        <v>0.95401036019110241</v>
+        <v>0.91565482936934339</v>
       </c>
       <c r="F40">
-        <v>238.8795610783751</v>
+        <v>200.54747036088008</v>
       </c>
       <c r="G40">
-        <v>299.32280277038882</v>
+        <v>259.02144931667971</v>
       </c>
       <c r="H40">
-        <v>24.372198315644098</v>
+        <v>18.629999270482525</v>
       </c>
       <c r="I40">
-        <v>30.539049371079678</v>
+        <v>21.561980952068716</v>
       </c>
       <c r="J40">
-        <v>4.7264107565894817E-2</v>
+        <v>4.6890100326265449E-2</v>
       </c>
       <c r="K40">
-        <v>0.95599999999999996</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="L40" s="1">
-        <v>194097245.65855816</v>
+        <v>179661871.16735315</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -1966,28 +1966,28 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>0.92581823721386558</v>
+        <v>0.96214963281665167</v>
       </c>
       <c r="F41">
-        <v>202.46625411037809</v>
+        <v>286.45695908320482</v>
       </c>
       <c r="G41">
-        <v>258.45882595759463</v>
+        <v>345.41364271431206</v>
       </c>
       <c r="H41">
-        <v>21.105346148275203</v>
+        <v>28.888973525930631</v>
       </c>
       <c r="I41">
-        <v>26.942084797686999</v>
+        <v>31.834711685152655</v>
       </c>
       <c r="J41">
-        <v>4.9393093372505352E-2</v>
+        <v>4.8787183753414579E-2</v>
       </c>
       <c r="K41">
-        <v>0.97799999999999998</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="L41" s="1">
-        <v>186323281.98541087</v>
+        <v>203773752.39636305</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2004,28 +2004,28 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>0.99109004870957917</v>
+        <v>0.92081908978405558</v>
       </c>
       <c r="F42">
-        <v>182.80765296342551</v>
+        <v>199.90299927246835</v>
       </c>
       <c r="G42">
-        <v>240.56452045916004</v>
+        <v>260.36482297269691</v>
       </c>
       <c r="H42">
-        <v>19.333241911802887</v>
+        <v>18.037703080775081</v>
       </c>
       <c r="I42">
-        <v>25.441451679073324</v>
+        <v>20.993311188687482</v>
       </c>
       <c r="J42">
-        <v>5.1479075563582624E-2</v>
+        <v>4.5734866352339962E-2</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="L42" s="1">
-        <v>182237052.88167614</v>
+        <v>178277283.62434185</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2042,28 +2042,28 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>0.981897157840533</v>
+        <v>0.93802411277694742</v>
       </c>
       <c r="F43">
-        <v>300.65509567908344</v>
+        <v>187.26350068032284</v>
       </c>
       <c r="G43">
-        <v>362.25803194018363</v>
+        <v>245.50547110844104</v>
       </c>
       <c r="H43">
-        <v>29.468327910959751</v>
+        <v>18.001278556537546</v>
       </c>
       <c r="I43">
-        <v>35.506261583495025</v>
+        <v>20.999966659393984</v>
       </c>
       <c r="J43">
-        <v>4.7589952400603514E-2</v>
+        <v>4.8316915063922015E-2</v>
       </c>
       <c r="K43">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="L43" s="1">
-        <v>206035513.05731297</v>
+        <v>178203254.00264549</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2080,28 +2080,28 @@
         <v>4</v>
       </c>
       <c r="E44">
-        <v>0.72002948445779658</v>
+        <v>0.76796869314660932</v>
       </c>
       <c r="F44">
-        <v>16.515836608864134</v>
+        <v>26.010424737593606</v>
       </c>
       <c r="G44">
-        <v>72.2517147017968</v>
+        <v>84.972541702476974</v>
       </c>
       <c r="H44">
-        <v>1.6107511313626319</v>
+        <v>2.5374003174091899</v>
       </c>
       <c r="I44">
-        <v>7.0465416893472907</v>
+        <v>6.4893438481727106</v>
       </c>
       <c r="J44">
-        <v>5.1674397827355383E-2</v>
+        <v>5.2099126196842316E-2</v>
       </c>
       <c r="K44">
         <v>1</v>
       </c>
       <c r="L44" s="1">
-        <v>185402452.31189045</v>
+        <v>187148119.14103994</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2118,28 +2118,28 @@
         <v>4</v>
       </c>
       <c r="E45">
-        <v>0.72238167436383338</v>
+        <v>0.72468403591059771</v>
       </c>
       <c r="F45">
-        <v>26.015992348872601</v>
+        <v>28.421656448628003</v>
       </c>
       <c r="G45">
-        <v>86.597129776724216</v>
+        <v>87.805882960216053</v>
       </c>
       <c r="H45">
-        <v>2.3398489995624958</v>
+        <v>2.7018077140579835</v>
       </c>
       <c r="I45">
-        <v>7.7884481497332718</v>
+        <v>6.646966418033541</v>
       </c>
       <c r="J45">
-        <v>4.7696804981527001E-2</v>
+        <v>4.8813233983551862E-2</v>
       </c>
       <c r="K45">
         <v>1</v>
       </c>
       <c r="L45" s="1">
-        <v>187121051.19980347</v>
+        <v>187533734.34814933</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2156,28 +2156,28 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>0.76244528281738067</v>
+        <v>0.77702124976897013</v>
       </c>
       <c r="F46">
-        <v>32.341143766697407</v>
+        <v>58.07355932950054</v>
       </c>
       <c r="G46">
-        <v>95.016401974974642</v>
+        <v>119.54782085868041</v>
       </c>
       <c r="H46">
-        <v>2.9281997700492872</v>
+        <v>5.6889209064780664</v>
       </c>
       <c r="I46">
-        <v>8.6028808511259154</v>
+        <v>9.6109766520090325</v>
       </c>
       <c r="J46">
-        <v>4.8660048932462847E-2</v>
+        <v>5.055912705190567E-2</v>
       </c>
       <c r="K46">
         <v>1</v>
       </c>
       <c r="L46" s="1">
-        <v>188569104.13585946</v>
+        <v>194546072.67952847</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2194,28 +2194,28 @@
         <v>4</v>
       </c>
       <c r="E47">
-        <v>0.7619892828613668</v>
+        <v>0.74480508496530129</v>
       </c>
       <c r="F47">
-        <v>22.718287880876993</v>
+        <v>31.684053570164078</v>
       </c>
       <c r="G47">
-        <v>83.027837609651584</v>
+        <v>92.027709594978916</v>
       </c>
       <c r="H47">
-        <v>2.1132297550029171</v>
+        <v>2.9212442073382618</v>
       </c>
       <c r="I47">
-        <v>7.7231566854981182</v>
+        <v>6.8848806663454951</v>
       </c>
       <c r="J47">
-        <v>5.053854895539444E-2</v>
+        <v>4.9370895569139525E-2</v>
       </c>
       <c r="K47">
         <v>1</v>
       </c>
       <c r="L47" s="1">
-        <v>186634376.70517272</v>
+        <v>188054578.0109776</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2232,28 +2232,28 @@
         <v>4</v>
       </c>
       <c r="E48">
-        <v>0.71655774097924907</v>
+        <v>0.80690364160711481</v>
       </c>
       <c r="F48">
-        <v>18.082456394473049</v>
+        <v>40.443091191376894</v>
       </c>
       <c r="G48">
-        <v>76.483354557815147</v>
+        <v>103.158845546197</v>
       </c>
       <c r="H48">
-        <v>1.7628452802077492</v>
+        <v>4.0536403053595897</v>
       </c>
       <c r="I48">
-        <v>7.4563055845615596</v>
+        <v>8.03968576194268</v>
       </c>
       <c r="J48">
-        <v>4.9078542523445484E-2</v>
+        <v>5.1464175144381313E-2</v>
       </c>
       <c r="K48">
         <v>1</v>
       </c>
       <c r="L48" s="1">
-        <v>185835828.90360889</v>
+        <v>190721444.8797816</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2270,28 +2270,28 @@
         <v>4</v>
       </c>
       <c r="E49">
-        <v>0.75239875107894094</v>
+        <v>0.68794735999110612</v>
       </c>
       <c r="F49">
-        <v>22.616970380169938</v>
+        <v>14.446905695992948</v>
       </c>
       <c r="G49">
-        <v>82.080105196324794</v>
+        <v>73.288914074965589</v>
       </c>
       <c r="H49">
-        <v>2.1658630680754341</v>
+        <v>1.349667789381636</v>
       </c>
       <c r="I49">
-        <v>7.8602158237928705</v>
+        <v>5.3468424122942269</v>
       </c>
       <c r="J49">
-        <v>5.0612787462697394E-2</v>
+        <v>4.6765729378941225E-2</v>
       </c>
       <c r="K49">
         <v>1</v>
       </c>
       <c r="L49" s="1">
-        <v>186782605.06659251</v>
+        <v>184372109.97179732</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2308,28 +2308,28 @@
         <v>5</v>
       </c>
       <c r="E50">
-        <v>0.5941845792930428</v>
+        <v>0.61479619830657373</v>
       </c>
       <c r="F50">
-        <v>7.9889038070735099</v>
+        <v>4.9047655119907345</v>
       </c>
       <c r="G50">
-        <v>69.797306175320927</v>
+        <v>65.621377124700317</v>
       </c>
       <c r="H50">
-        <v>0.71689880866641142</v>
+        <v>0.47186313082839232</v>
       </c>
       <c r="I50">
-        <v>6.2633881760984771</v>
+        <v>5.4131067904536856</v>
       </c>
       <c r="J50">
-        <v>4.806665085379163E-2</v>
+        <v>5.0628335638041526E-2</v>
       </c>
       <c r="K50">
         <v>1</v>
       </c>
       <c r="L50" s="1">
-        <v>228344465.61221865</v>
+        <v>227591544.63653341</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2346,28 +2346,28 @@
         <v>5</v>
       </c>
       <c r="E51">
-        <v>0.56753976481951163</v>
+        <v>0.57709909554021233</v>
       </c>
       <c r="F51">
-        <v>6.4038644930695208</v>
+        <v>6.4107004321221783</v>
       </c>
       <c r="G51">
-        <v>65.229358937420884</v>
+        <v>64.678135426396267</v>
       </c>
       <c r="H51">
-        <v>0.59050707066753927</v>
+        <v>0.59254766408048176</v>
       </c>
       <c r="I51">
-        <v>6.0148676958020886</v>
+        <v>5.9782668789134501</v>
       </c>
       <c r="J51">
-        <v>4.8239268550169294E-2</v>
+        <v>4.9521580587589369E-2</v>
       </c>
       <c r="K51">
         <v>1</v>
       </c>
       <c r="L51" s="1">
-        <v>228011840.83227655</v>
+        <v>228004910.70938516</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -2384,28 +2384,28 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>0.57922087186576354</v>
+        <v>0.65280652114765991</v>
       </c>
       <c r="F52">
-        <v>15.326631788284809</v>
+        <v>14.594182474994822</v>
       </c>
       <c r="G52">
-        <v>73.495550512023641</v>
+        <v>78.321524420770928</v>
       </c>
       <c r="H52">
-        <v>1.4430119853356334</v>
+        <v>1.372116875001675</v>
       </c>
       <c r="I52">
-        <v>6.9196521272701021</v>
+        <v>6.3636385948801664</v>
       </c>
       <c r="J52">
-        <v>4.9787832108127296E-2</v>
+        <v>5.1218715641954314E-2</v>
       </c>
       <c r="K52">
         <v>1</v>
       </c>
       <c r="L52" s="1">
-        <v>230029860.00980112</v>
+        <v>229721550.45837283</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -2422,28 +2422,28 @@
         <v>5</v>
       </c>
       <c r="E53">
-        <v>0.58040082801723225</v>
+        <v>0.6086550756223984</v>
       </c>
       <c r="F53">
-        <v>4.0667713750060752</v>
+        <v>7.552029177173063</v>
       </c>
       <c r="G53">
-        <v>62.891654584932688</v>
+        <v>68.439537747252587</v>
       </c>
       <c r="H53">
-        <v>0.37987521779241973</v>
+        <v>0.71410952030581409</v>
       </c>
       <c r="I53">
-        <v>5.8746801282236447</v>
+        <v>5.671548814769924</v>
       </c>
       <c r="J53">
-        <v>4.9332935005240386E-2</v>
+        <v>4.9981933069396078E-2</v>
       </c>
       <c r="K53">
         <v>1</v>
       </c>
       <c r="L53" s="1">
-        <v>227536945.14012069</v>
+        <v>228165778.98250669</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -2460,28 +2460,28 @@
         <v>5</v>
       </c>
       <c r="E54">
-        <v>0.56218748256911166</v>
+        <v>0.58045662053662794</v>
       </c>
       <c r="F54">
-        <v>4.5892741138233051</v>
+        <v>6.6605736349821871</v>
       </c>
       <c r="G54">
-        <v>61.526628868190912</v>
+        <v>66.953598524921418</v>
       </c>
       <c r="H54">
-        <v>0.42235075521862142</v>
+        <v>0.60887978106717366</v>
       </c>
       <c r="I54">
-        <v>5.6622937580182136</v>
+        <v>5.5205978111857688</v>
       </c>
       <c r="J54">
-        <v>4.9368949874334267E-2</v>
+        <v>4.8136299480430009E-2</v>
       </c>
       <c r="K54">
         <v>1</v>
       </c>
       <c r="L54" s="1">
-        <v>227562584.33237556</v>
+        <v>227905876.31996721</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -2498,28 +2498,28 @@
         <v>5</v>
       </c>
       <c r="E55">
-        <v>0.587134589123117</v>
+        <v>0.59357425587024681</v>
       </c>
       <c r="F55">
-        <v>3.9606379035225299</v>
+        <v>5.8006214047428406</v>
       </c>
       <c r="G55">
-        <v>63.650729686814188</v>
+        <v>65.561695843607041</v>
       </c>
       <c r="H55">
-        <v>0.34646849883065894</v>
+        <v>0.54663062484925329</v>
       </c>
       <c r="I55">
-        <v>5.5680355794335545</v>
+        <v>5.4783088852971664</v>
       </c>
       <c r="J55">
-        <v>4.9181913746651811E-2</v>
+        <v>4.9662281128954273E-2</v>
       </c>
       <c r="K55">
         <v>1</v>
       </c>
       <c r="L55" s="1">
-        <v>227378983.77505249</v>
+        <v>227764826.9867627</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -2536,28 +2536,28 @@
         <v>3</v>
       </c>
       <c r="E56">
-        <v>0.98539310288408177</v>
+        <v>0.95226365218811859</v>
       </c>
       <c r="F56">
-        <v>228.3995467935539</v>
+        <v>209.5391731367406</v>
       </c>
       <c r="G56">
-        <v>291.48993100847161</v>
+        <v>273.1404458773784</v>
       </c>
       <c r="H56">
-        <v>22.197786221738987</v>
+        <v>19.663973567403165</v>
       </c>
       <c r="I56">
-        <v>28.329439638354458</v>
+        <v>22.632565154852749</v>
       </c>
       <c r="J56">
-        <v>4.6682853981743988E-2</v>
+        <v>4.4623154487505146E-2</v>
       </c>
       <c r="K56">
-        <v>0.92900000000000005</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="L56" s="1">
-        <v>188977352.69507855</v>
+        <v>182103214.35241243</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -2574,28 +2574,28 @@
         <v>3</v>
       </c>
       <c r="E57">
-        <v>0.96295069814095802</v>
+        <v>0.97690565243057781</v>
       </c>
       <c r="F57">
-        <v>208.51470821840337</v>
+        <v>277.89449786202232</v>
       </c>
       <c r="G57">
-        <v>269.58183409970587</v>
+        <v>341.35834662993722</v>
       </c>
       <c r="H57">
-        <v>20.358103221383708</v>
+        <v>26.388738111882727</v>
       </c>
       <c r="I57">
-        <v>26.320324604935315</v>
+        <v>29.315237008381743</v>
       </c>
       <c r="J57">
-        <v>4.7204557100029514E-2</v>
+        <v>4.6304454142353041E-2</v>
       </c>
       <c r="K57">
-        <v>0.96799999999999997</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="L57" s="1">
-        <v>184604597.28395268</v>
+        <v>197893531.57150224</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -2612,28 +2612,28 @@
         <v>3</v>
       </c>
       <c r="E58">
-        <v>0.993889281471251</v>
+        <v>0.983796098115718</v>
       </c>
       <c r="F58">
-        <v>334.34649612241725</v>
+        <v>347.69304401874086</v>
       </c>
       <c r="G58">
-        <v>400.63171086098771</v>
+        <v>414.88996503297778</v>
       </c>
       <c r="H58">
-        <v>31.716389970852997</v>
+        <v>32.25933535497812</v>
       </c>
       <c r="I58">
-        <v>38.004261219189601</v>
+        <v>35.193938109076903</v>
       </c>
       <c r="J58">
-        <v>4.5307002439025593E-2</v>
+        <v>4.3760709660993574E-2</v>
       </c>
       <c r="K58">
-        <v>0.89200000000000002</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="L58" s="1">
-        <v>211392046.83885586</v>
+        <v>211692747.21951842</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -2650,28 +2650,28 @@
         <v>3</v>
       </c>
       <c r="E59">
-        <v>0.9855033752825535</v>
+        <v>0.99041678765672658</v>
       </c>
       <c r="F59">
-        <v>327.41200907448518</v>
+        <v>434.15413958032872</v>
       </c>
       <c r="G59">
-        <v>394.04651708180648</v>
+        <v>501.94706694586387</v>
       </c>
       <c r="H59">
-        <v>32.583394313031143</v>
+        <v>42.148566035146246</v>
       </c>
       <c r="I59">
-        <v>39.214728500786741</v>
+        <v>45.130041173317601</v>
       </c>
       <c r="J59">
-        <v>4.384549398407326E-2</v>
+        <v>4.4703795512563434E-2</v>
       </c>
       <c r="K59">
-        <v>0.88</v>
+        <v>0.879</v>
       </c>
       <c r="L59" s="1">
-        <v>213530002.82401603</v>
+        <v>234945725.52448431</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -2688,28 +2688,28 @@
         <v>3</v>
       </c>
       <c r="E60">
-        <v>0.99659674525245501</v>
+        <v>0.95611329194639605</v>
       </c>
       <c r="F60">
-        <v>384.25051343796662</v>
+        <v>247.557589292676</v>
       </c>
       <c r="G60">
-        <v>454.43904174133576</v>
+        <v>311.38429464882518</v>
       </c>
       <c r="H60">
-        <v>33.77467788782814</v>
+        <v>23.5676898923114</v>
       </c>
       <c r="I60">
-        <v>39.944077412260292</v>
+        <v>26.544045713110901</v>
       </c>
       <c r="J60">
-        <v>4.1591039010855521E-2</v>
+        <v>4.5246665158232995E-2</v>
       </c>
       <c r="K60">
-        <v>0.90100000000000002</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="L60" s="1">
-        <v>216195941.65837681</v>
+        <v>191278973.2913501</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -2726,28 +2726,28 @@
         <v>3</v>
       </c>
       <c r="E61">
-        <v>0.99012347313754134</v>
+        <v>0.98921106836524775</v>
       </c>
       <c r="F61">
-        <v>448.2226212713432</v>
+        <v>396.62851212720852</v>
       </c>
       <c r="G61">
-        <v>516.27035408004804</v>
+        <v>460.5154236719373</v>
       </c>
       <c r="H61">
-        <v>41.18032886051342</v>
+        <v>38.88566999427556</v>
       </c>
       <c r="I61">
-        <v>47.432195415857159</v>
+        <v>41.84917673502396</v>
       </c>
       <c r="J61">
-        <v>4.335608295025091E-2</v>
+        <v>4.6593356805477555E-2</v>
       </c>
       <c r="K61">
-        <v>0.89300000000000002</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="L61" s="1">
-        <v>233622557.45870525</v>
+        <v>227271982.43930328</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -2764,28 +2764,28 @@
         <v>4</v>
       </c>
       <c r="E62">
-        <v>0.80665787224849639</v>
+        <v>0.80444365378464866</v>
       </c>
       <c r="F62">
-        <v>39.388548377443563</v>
+        <v>41.245869906017113</v>
       </c>
       <c r="G62">
-        <v>107.14602573607065</v>
+        <v>105.22819526448198</v>
       </c>
       <c r="H62">
-        <v>3.8078152856554293</v>
+        <v>4.062509577015172</v>
       </c>
       <c r="I62">
-        <v>10.35814447096209</v>
+        <v>7.9644450222061369</v>
       </c>
       <c r="J62">
-        <v>4.7620301327277278E-2</v>
+        <v>5.0291617210078285E-2</v>
       </c>
       <c r="K62">
         <v>1</v>
       </c>
       <c r="L62" s="1">
-        <v>190891404.10121673</v>
+        <v>190718251.36408246</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -2802,28 +2802,28 @@
         <v>4</v>
       </c>
       <c r="E63">
-        <v>0.84619146244929833</v>
+        <v>0.79828358121721021</v>
       </c>
       <c r="F63">
-        <v>57.043536277370535</v>
+        <v>55.881763546777329</v>
       </c>
       <c r="G63">
-        <v>123.42807179802507</v>
+        <v>120.08699870394008</v>
       </c>
       <c r="H63">
-        <v>5.5560652443576792</v>
+        <v>5.3629813576376719</v>
       </c>
       <c r="I63">
-        <v>12.02194787785521</v>
+        <v>9.324767553278674</v>
       </c>
       <c r="J63">
-        <v>5.0987264176068213E-2</v>
+        <v>4.975472690134268E-2</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="L63" s="1">
-        <v>194973954.9465223</v>
+        <v>193791977.95079201</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -2840,28 +2840,28 @@
         <v>4</v>
       </c>
       <c r="E64">
-        <v>0.71522882093465101</v>
+        <v>0.82432805773314621</v>
       </c>
       <c r="F64">
-        <v>16.100487108118969</v>
+        <v>51.38045886550244</v>
       </c>
       <c r="G64">
-        <v>76.706611537979256</v>
+        <v>115.06097253312896</v>
       </c>
       <c r="H64">
-        <v>1.4630842956718939</v>
+        <v>5.2541700943030074</v>
       </c>
       <c r="I64">
-        <v>6.9704871636354886</v>
+        <v>9.16614483898449</v>
       </c>
       <c r="J64">
-        <v>4.7205052470390932E-2</v>
+        <v>5.1778982941980488E-2</v>
       </c>
       <c r="K64">
         <v>1</v>
       </c>
       <c r="L64" s="1">
-        <v>185077950.43472999</v>
+        <v>193521017.25371116</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -2878,28 +2878,28 @@
         <v>4</v>
       </c>
       <c r="E65">
-        <v>0.78520526535251411</v>
+        <v>0.77342158458460575</v>
       </c>
       <c r="F65">
-        <v>31.648270600783793</v>
+        <v>36.740958284460611</v>
       </c>
       <c r="G65">
-        <v>95.853400643550771</v>
+        <v>100.79301402358351</v>
       </c>
       <c r="H65">
-        <v>3.0815262183218413</v>
+        <v>3.40870363631335</v>
       </c>
       <c r="I65">
-        <v>9.3330460587977342</v>
+        <v>7.3512398549083144</v>
       </c>
       <c r="J65">
-        <v>4.8918537495647986E-2</v>
+        <v>4.8299563575893274E-2</v>
       </c>
       <c r="K65">
         <v>1</v>
       </c>
       <c r="L65" s="1">
-        <v>189097184.43507397</v>
+        <v>189194369.24860656</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -2916,28 +2916,28 @@
         <v>4</v>
       </c>
       <c r="E66">
-        <v>0.86316329034605577</v>
+        <v>0.80578577515213889</v>
       </c>
       <c r="F66">
-        <v>89.644265122846079</v>
+        <v>30.268584039176368</v>
       </c>
       <c r="G66">
-        <v>160.34511530037051</v>
+        <v>94.16901040560623</v>
       </c>
       <c r="H66">
-        <v>8.7068726257324514</v>
+        <v>2.936869852795756</v>
       </c>
       <c r="I66">
-        <v>15.573829437561072</v>
+        <v>6.8369364146629064</v>
       </c>
       <c r="J66">
-        <v>4.8834676707774742E-2</v>
+        <v>5.0440087553184784E-2</v>
       </c>
       <c r="K66">
         <v>1</v>
       </c>
       <c r="L66" s="1">
-        <v>202495872.09894797</v>
+        <v>188072398.49074093</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -2954,28 +2954,28 @@
         <v>4</v>
       </c>
       <c r="E67">
-        <v>0.81438204170061113</v>
+        <v>0.78982067886968088</v>
       </c>
       <c r="F67">
-        <v>48.02598631671988</v>
+        <v>52.715379192026788</v>
       </c>
       <c r="G67">
-        <v>113.34050152687189</v>
+        <v>117.87843474616143</v>
       </c>
       <c r="H67">
-        <v>4.6819069242688522</v>
+        <v>5.0251344059550265</v>
       </c>
       <c r="I67">
-        <v>11.049219799448956</v>
+        <v>8.9368532151743398</v>
       </c>
       <c r="J67">
-        <v>4.9874490476140246E-2</v>
+        <v>4.8482728267003006E-2</v>
       </c>
       <c r="K67">
         <v>1</v>
       </c>
       <c r="L67" s="1">
-        <v>192891416.38478068</v>
+        <v>192983945.00437698</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -2992,28 +2992,28 @@
         <v>5</v>
       </c>
       <c r="E68">
-        <v>0.64929940798277797</v>
+        <v>0.64764415100528705</v>
       </c>
       <c r="F68">
-        <v>12.650512842785606</v>
+        <v>16.003166193986356</v>
       </c>
       <c r="G68">
-        <v>77.570098078766634</v>
+        <v>83.400253852870904</v>
       </c>
       <c r="H68">
-        <v>1.2235783011189898</v>
+        <v>1.4268209167724966</v>
       </c>
       <c r="I68">
-        <v>7.5027068075724825</v>
+        <v>6.3358552063359097</v>
       </c>
       <c r="J68">
-        <v>5.0007975684270914E-2</v>
+        <v>4.8046894420957428E-2</v>
       </c>
       <c r="K68">
         <v>1</v>
       </c>
       <c r="L68" s="1">
-        <v>229747632.41212603</v>
+        <v>229827290.54727048</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -3030,28 +3030,28 @@
         <v>5</v>
       </c>
       <c r="E69">
-        <v>0.67623076736973298</v>
+        <v>0.63826935897875292</v>
       </c>
       <c r="F69">
-        <v>9.9550490512146954</v>
+        <v>13.378587614094597</v>
       </c>
       <c r="G69">
-        <v>75.314876106288523</v>
+        <v>78.029235917498781</v>
       </c>
       <c r="H69">
-        <v>0.97820284322675266</v>
+        <v>1.2593310221397163</v>
       </c>
       <c r="I69">
-        <v>7.4005889439040571</v>
+        <v>6.2449186311147811</v>
       </c>
       <c r="J69">
-        <v>5.1731376736961411E-2</v>
+        <v>4.9362951163565094E-2</v>
       </c>
       <c r="K69">
         <v>1</v>
       </c>
       <c r="L69" s="1">
-        <v>229212041.77060363</v>
+        <v>229455472.78955373</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -3068,28 +3068,28 @@
         <v>5</v>
       </c>
       <c r="E70">
-        <v>0.6489416677861678</v>
+        <v>0.64029849673677497</v>
       </c>
       <c r="F70">
-        <v>11.70759582994924</v>
+        <v>10.518429215907254</v>
       </c>
       <c r="G70">
-        <v>78.82788119656766</v>
+        <v>76.197411798442886</v>
       </c>
       <c r="H70">
-        <v>1.0433679314012911</v>
+        <v>0.9413087629205571</v>
       </c>
       <c r="I70">
-        <v>7.0250531821755011</v>
+        <v>5.9190116571083458</v>
       </c>
       <c r="J70">
-        <v>4.8341694633863327E-2</v>
+        <v>4.8744550506103108E-2</v>
       </c>
       <c r="K70">
         <v>1</v>
       </c>
       <c r="L70" s="1">
-        <v>229238206.9112806</v>
+        <v>228706057.92863217</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -3106,28 +3106,28 @@
         <v>5</v>
       </c>
       <c r="E71">
-        <v>0.6015630076125229</v>
+        <v>0.67604977851496495</v>
       </c>
       <c r="F71">
-        <v>10.078290720394524</v>
+        <v>10.080095594527121</v>
       </c>
       <c r="G71">
-        <v>73.705789070847061</v>
+        <v>76.874482431452307</v>
       </c>
       <c r="H71">
-        <v>0.92281060905313661</v>
+        <v>0.93123428225057936</v>
       </c>
       <c r="I71">
-        <v>6.7488114790707119</v>
+        <v>5.9019320004570508</v>
       </c>
       <c r="J71">
-        <v>4.7272250458377796E-2</v>
+        <v>5.0606780788743727E-2</v>
       </c>
       <c r="K71">
         <v>1</v>
       </c>
       <c r="L71" s="1">
-        <v>228909994.09052807</v>
+        <v>228679646.05649117</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -3144,28 +3144,28 @@
         <v>5</v>
       </c>
       <c r="E72">
-        <v>0.66598527890940973</v>
+        <v>0.62638820038087495</v>
       </c>
       <c r="F72">
-        <v>8.9777030378532352</v>
+        <v>7.2039520908084276</v>
       </c>
       <c r="G72">
-        <v>72.260987699351489</v>
+        <v>71.784197183132889</v>
       </c>
       <c r="H72">
-        <v>0.86726356743241184</v>
+        <v>0.67589661665366907</v>
       </c>
       <c r="I72">
-        <v>6.9805518977507646</v>
+        <v>5.635010920906141</v>
       </c>
       <c r="J72">
-        <v>5.2619367220882993E-2</v>
+        <v>4.8496889372701121E-2</v>
       </c>
       <c r="K72">
         <v>1</v>
       </c>
       <c r="L72" s="1">
-        <v>228861054.02488095</v>
+        <v>228077022.97815886</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -3182,28 +3182,28 @@
         <v>5</v>
       </c>
       <c r="E73">
-        <v>0.66710010236009976</v>
+        <v>0.64581978341118795</v>
       </c>
       <c r="F73">
-        <v>15.496404511609009</v>
+        <v>12.881174217272878</v>
       </c>
       <c r="G73">
-        <v>78.690606634638627</v>
+        <v>79.332927958908016</v>
       </c>
       <c r="H73">
-        <v>1.5045813116175544</v>
+        <v>1.1745061621108466</v>
       </c>
       <c r="I73">
-        <v>7.6402507467864478</v>
+        <v>6.1335806638721344</v>
       </c>
       <c r="J73">
-        <v>5.2781748953911807E-2</v>
+        <v>4.8593133141537508E-2</v>
       </c>
       <c r="K73">
         <v>1</v>
       </c>
       <c r="L73" s="1">
-        <v>230365202.73207769</v>
+        <v>229248707.73604494</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -3220,28 +3220,28 @@
         <v>3</v>
       </c>
       <c r="E74">
-        <v>0.98021583639184096</v>
+        <v>0.9947362169753875</v>
       </c>
       <c r="F74">
-        <v>259.08419132980265</v>
+        <v>340.9026903518519</v>
       </c>
       <c r="G74">
-        <v>326.05372765778975</v>
+        <v>410.49123057908878</v>
       </c>
       <c r="H74">
-        <v>24.044910928540016</v>
+        <v>31.239937204016663</v>
       </c>
       <c r="I74">
-        <v>30.260174498528603</v>
+        <v>34.21695237093801</v>
       </c>
       <c r="J74">
-        <v>4.3553911323621082E-2</v>
+        <v>4.2336677254630695E-2</v>
       </c>
       <c r="K74">
-        <v>0.94099999999999995</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="L74" s="1">
-        <v>193343599.66418937</v>
+        <v>209310037.58904278</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -3258,28 +3258,28 @@
         <v>3</v>
       </c>
       <c r="E75">
-        <v>0.98534208957581459</v>
+        <v>0.98304349101423061</v>
       </c>
       <c r="F75">
-        <v>308.47338663869795</v>
+        <v>363.31675974816534</v>
       </c>
       <c r="G75">
-        <v>379.3418882415732</v>
+        <v>433.67245739859334</v>
       </c>
       <c r="H75">
-        <v>28.337632723238904</v>
+        <v>32.891687433939886</v>
       </c>
       <c r="I75">
-        <v>34.847904458352062</v>
+        <v>35.861109031552616</v>
       </c>
       <c r="J75">
-        <v>4.2009768404296828E-2</v>
+        <v>4.1043179958374788E-2</v>
       </c>
       <c r="K75">
-        <v>0.84299999999999997</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="L75" s="1">
-        <v>203517922.31137776</v>
+        <v>213189925.96217966</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -3296,28 +3296,28 @@
         <v>3</v>
       </c>
       <c r="E76">
-        <v>0.98178708774049495</v>
+        <v>0.99697392265636431</v>
       </c>
       <c r="F76">
-        <v>303.88318658927841</v>
+        <v>385.44001297910359</v>
       </c>
       <c r="G76">
-        <v>372.89185216799382</v>
+        <v>454.02878745600015</v>
       </c>
       <c r="H76">
-        <v>27.330246154249462</v>
+        <v>36.171003802130819</v>
       </c>
       <c r="I76">
-        <v>33.536656710262491</v>
+        <v>39.107608043636496</v>
       </c>
       <c r="J76">
-        <v>4.1881627982536758E-2</v>
+        <v>4.4010876093983582E-2</v>
       </c>
       <c r="K76">
-        <v>0.89600000000000002</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="L76" s="1">
-        <v>201062188.32379258</v>
+        <v>220885656.69075033</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -3334,28 +3334,28 @@
         <v>3</v>
       </c>
       <c r="E77">
-        <v>0.99299897249640356</v>
+        <v>0.99471829408482659</v>
       </c>
       <c r="F77">
-        <v>417.9119842260323</v>
+        <v>539.3005256919987</v>
       </c>
       <c r="G77">
-        <v>490.62232195255473</v>
+        <v>613.90367309406076</v>
       </c>
       <c r="H77">
-        <v>39.833864567851919</v>
+        <v>49.127448194841506</v>
       </c>
       <c r="I77">
-        <v>46.764351979082875</v>
+        <v>52.123403482413515</v>
       </c>
       <c r="J77">
-        <v>4.0947807424879794E-2</v>
+        <v>4.0339128075498068E-2</v>
       </c>
       <c r="K77">
-        <v>0.84399999999999997</v>
+        <v>0.79100000000000004</v>
       </c>
       <c r="L77" s="1">
-        <v>230656748.14333591</v>
+        <v>251351949.0735327</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -3372,28 +3372,28 @@
         <v>3</v>
       </c>
       <c r="E78">
-        <v>0.99289646301040257</v>
+        <v>0.9726902509833909</v>
       </c>
       <c r="F78">
-        <v>432.67471728224348</v>
+        <v>382.88096937985404</v>
       </c>
       <c r="G78">
-        <v>501.33736052667621</v>
+        <v>451.76983219411829</v>
       </c>
       <c r="H78">
-        <v>41.436458795301704</v>
+        <v>34.901674685423764</v>
       </c>
       <c r="I78">
-        <v>48.012153361985824</v>
+        <v>37.881267748736583</v>
       </c>
       <c r="J78">
-        <v>4.336361895328298E-2</v>
+        <v>4.2941515175252715E-2</v>
       </c>
       <c r="K78">
-        <v>0.84899999999999998</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="L78" s="1">
-        <v>234318693.93075663</v>
+        <v>217915644.02397919</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -3410,28 +3410,28 @@
         <v>3</v>
       </c>
       <c r="E79">
-        <v>0.98217183648991557</v>
+        <v>0.97167749002928439</v>
       </c>
       <c r="F79">
-        <v>412.44422300269548</v>
+        <v>452.34462271946154</v>
       </c>
       <c r="G79">
-        <v>483.33094209780518</v>
+        <v>522.34301839822274</v>
       </c>
       <c r="H79">
-        <v>38.915819449960424</v>
+        <v>39.502994490677182</v>
       </c>
       <c r="I79">
-        <v>45.60427478004592</v>
+        <v>42.415913933005193</v>
       </c>
       <c r="J79">
-        <v>4.2506264584863347E-2</v>
+        <v>4.1177592802258398E-2</v>
       </c>
       <c r="K79">
-        <v>0.84499999999999997</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="L79" s="1">
-        <v>228428326.35924253</v>
+        <v>228710005.01350796</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -3448,28 +3448,28 @@
         <v>4</v>
       </c>
       <c r="E80">
-        <v>0.87226602354850491</v>
+        <v>0.90452576584966804</v>
       </c>
       <c r="F80">
-        <v>98.749749568714932</v>
+        <v>74.367962567170935</v>
       </c>
       <c r="G80">
-        <v>169.14870429102956</v>
+        <v>147.17433707750084</v>
       </c>
       <c r="H80">
-        <v>9.6113513779084343</v>
+        <v>7.3004986873258657</v>
       </c>
       <c r="I80">
-        <v>16.463308911256913</v>
+        <v>11.247700562885322</v>
       </c>
       <c r="J80">
-        <v>4.9441097699228442E-2</v>
+        <v>4.9694866524157603E-2</v>
       </c>
       <c r="K80">
-        <v>0.997</v>
+        <v>1</v>
       </c>
       <c r="L80" s="1">
-        <v>204616804.96865201</v>
+        <v>198340922.08605704</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -3486,28 +3486,28 @@
         <v>4</v>
       </c>
       <c r="E81">
-        <v>0.88277758816160579</v>
+        <v>0.91317874859146364</v>
       </c>
       <c r="F81">
-        <v>127.20010881249578</v>
+        <v>89.187820885979008</v>
       </c>
       <c r="G81">
-        <v>198.70351758667849</v>
+        <v>160.45794143458431</v>
       </c>
       <c r="H81">
-        <v>12.358971656387196</v>
+        <v>9.4100189874544231</v>
       </c>
       <c r="I81">
-        <v>19.306360386045093</v>
+        <v>13.329579180072303</v>
       </c>
       <c r="J81">
-        <v>4.9304731772031991E-2</v>
+        <v>5.1263980846758594E-2</v>
       </c>
       <c r="K81">
-        <v>0.98899999999999999</v>
+        <v>0.999</v>
       </c>
       <c r="L81" s="1">
-        <v>211101534.23842585</v>
+        <v>203289662.64375216</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -3524,28 +3524,28 @@
         <v>4</v>
       </c>
       <c r="E82">
-        <v>0.87566093970292358</v>
+        <v>0.85632655589404261</v>
       </c>
       <c r="F82">
-        <v>66.494508119164976</v>
+        <v>99.286439901631567</v>
       </c>
       <c r="G82">
-        <v>135.73396317010949</v>
+        <v>168.43526367358169</v>
       </c>
       <c r="H82">
-        <v>6.4678331912171299</v>
+        <v>9.45295990608283</v>
       </c>
       <c r="I82">
-        <v>13.202663753731098</v>
+        <v>13.436548352970945</v>
       </c>
       <c r="J82">
-        <v>5.0587396394650187E-2</v>
+        <v>4.9518287077277637E-2</v>
       </c>
       <c r="K82">
-        <v>1</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="L82" s="1">
-        <v>197195023.41940382</v>
+        <v>203409860.65968511</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -3562,28 +3562,28 @@
         <v>4</v>
       </c>
       <c r="E83">
-        <v>0.79997767992930435</v>
+        <v>0.88591375261489747</v>
       </c>
       <c r="F83">
-        <v>40.807628589236081</v>
+        <v>109.96575867576409</v>
       </c>
       <c r="G83">
-        <v>109.16585148952905</v>
+        <v>180.86168940158177</v>
       </c>
       <c r="H83">
-        <v>3.7447855833105703</v>
+        <v>10.881071627271572</v>
       </c>
       <c r="I83">
-        <v>10.017801106816629</v>
+        <v>14.796198059348116</v>
       </c>
       <c r="J83">
-        <v>4.681091145954152E-2</v>
+        <v>4.9983898570487753E-2</v>
       </c>
       <c r="K83">
         <v>1</v>
       </c>
       <c r="L83" s="1">
-        <v>190662889.54632279</v>
+        <v>206745826.15385854</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -3600,28 +3600,28 @@
         <v>4</v>
       </c>
       <c r="E84">
-        <v>0.83806136797335373</v>
+        <v>0.89947325800496247</v>
       </c>
       <c r="F84">
-        <v>52.915198812590219</v>
+        <v>76.158001652329901</v>
       </c>
       <c r="G84">
-        <v>122.14864346219041</v>
+        <v>149.57799959293376</v>
       </c>
       <c r="H84">
-        <v>4.9385745900124114</v>
+        <v>7.239210444766627</v>
       </c>
       <c r="I84">
-        <v>11.400130781769436</v>
+        <v>11.218159529758857</v>
       </c>
       <c r="J84">
-        <v>4.8419452316139887E-2</v>
+        <v>4.9004264954222922E-2</v>
       </c>
       <c r="K84">
         <v>1</v>
       </c>
       <c r="L84" s="1">
-        <v>193522555.84371191</v>
+        <v>198206392.12957644</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -3638,28 +3638,28 @@
         <v>4</v>
       </c>
       <c r="E85">
-        <v>0.89271056753363331</v>
+        <v>0.87926440552057028</v>
       </c>
       <c r="F85">
-        <v>76.751303362295857</v>
+        <v>65.000639802330483</v>
       </c>
       <c r="G85">
-        <v>149.20155839741756</v>
+        <v>136.40007149476457</v>
       </c>
       <c r="H85">
-        <v>7.4733418488130425</v>
+        <v>6.4288655723257655</v>
       </c>
       <c r="I85">
-        <v>14.527886842730872</v>
+        <v>10.390601421188258</v>
       </c>
       <c r="J85">
-        <v>4.9286814358396804E-2</v>
+        <v>4.925890218892278E-2</v>
       </c>
       <c r="K85">
         <v>1</v>
       </c>
       <c r="L85" s="1">
-        <v>199651493.38255635</v>
+        <v>196296977.13866368</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -3676,28 +3676,28 @@
         <v>5</v>
       </c>
       <c r="E86">
-        <v>0.70355089527194159</v>
+        <v>0.67097800080009062</v>
       </c>
       <c r="F86">
-        <v>12.48162020882328</v>
+        <v>10.838831328691118</v>
       </c>
       <c r="G86">
-        <v>81.611321733631584</v>
+        <v>79.349253582093525</v>
       </c>
       <c r="H86">
-        <v>1.1682428420313851</v>
+        <v>0.99551657894290146</v>
       </c>
       <c r="I86">
-        <v>7.6385790345261571</v>
+        <v>5.9880087411838803</v>
       </c>
       <c r="J86">
-        <v>5.0886296320798052E-2</v>
+        <v>4.8969045783889352E-2</v>
       </c>
       <c r="K86">
         <v>1</v>
       </c>
       <c r="L86" s="1">
-        <v>229672906.14966941</v>
+        <v>228837665.78755897</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -3714,28 +3714,28 @@
         <v>5</v>
       </c>
       <c r="E87">
-        <v>0.67872229728616273</v>
+        <v>0.70311848799483057</v>
       </c>
       <c r="F87">
-        <v>10.406896840097925</v>
+        <v>24.729719322036459</v>
       </c>
       <c r="G87">
-        <v>78.826279264765333</v>
+        <v>93.555084648623705</v>
       </c>
       <c r="H87">
-        <v>0.98121004344981466</v>
+        <v>2.4419033984061671</v>
       </c>
       <c r="I87">
-        <v>7.4321037376248107</v>
+        <v>7.437972989773435</v>
       </c>
       <c r="J87">
-        <v>4.9600147884516756E-2</v>
+        <v>5.1079895083623782E-2</v>
       </c>
       <c r="K87">
         <v>1</v>
       </c>
       <c r="L87" s="1">
-        <v>229228203.61165529</v>
+        <v>232236924.27668601</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -3752,28 +3752,28 @@
         <v>5</v>
       </c>
       <c r="E88">
-        <v>0.70516509841235531</v>
+        <v>0.6811649110982837</v>
       </c>
       <c r="F88">
-        <v>17.626592408296613</v>
+        <v>16.553134070328113</v>
       </c>
       <c r="G88">
-        <v>89.477210138685734</v>
+        <v>84.190053453847113</v>
       </c>
       <c r="H88">
-        <v>1.713734882947453</v>
+        <v>1.5993077090471262</v>
       </c>
       <c r="I88">
-        <v>8.6993681303545642</v>
+        <v>6.5341576127981238</v>
       </c>
       <c r="J88">
-        <v>4.9071610007474273E-2</v>
+        <v>5.0354519196527975E-2</v>
       </c>
       <c r="K88">
         <v>1</v>
       </c>
       <c r="L88" s="1">
-        <v>231105444.39616916</v>
+        <v>230239281.49355358</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -3790,28 +3790,28 @@
         <v>5</v>
       </c>
       <c r="E89">
-        <v>0.71021429138819436</v>
+        <v>0.67482164977625725</v>
       </c>
       <c r="F89">
-        <v>15.451697368066243</v>
+        <v>12.96934841573354</v>
       </c>
       <c r="G89">
-        <v>86.203171851245855</v>
+        <v>81.136857697442139</v>
       </c>
       <c r="H89">
-        <v>1.5176762778514277</v>
+        <v>1.2114584744878223</v>
       </c>
       <c r="I89">
-        <v>8.4669344653725105</v>
+        <v>6.1789415705445361</v>
       </c>
       <c r="J89">
-        <v>5.0190776699433996E-2</v>
+        <v>4.9497308680260928E-2</v>
       </c>
       <c r="K89">
         <v>1</v>
       </c>
       <c r="L89" s="1">
-        <v>230633701.84425718</v>
+        <v>229337653.50524378</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -3828,28 +3828,28 @@
         <v>5</v>
       </c>
       <c r="E90">
-        <v>0.7101844648063903</v>
+        <v>0.65458699642332618</v>
       </c>
       <c r="F90">
-        <v>16.520969594936453</v>
+        <v>8.8469015816981891</v>
       </c>
       <c r="G90">
-        <v>89.975238944753414</v>
+        <v>75.966079862483397</v>
       </c>
       <c r="H90">
-        <v>1.5488403037878364</v>
+        <v>0.81376940218436633</v>
       </c>
       <c r="I90">
-        <v>8.4351754066109379</v>
+        <v>5.7876296040038762</v>
       </c>
       <c r="J90">
-        <v>4.8341946022512669E-2</v>
+        <v>4.8763037122187249E-2</v>
       </c>
       <c r="K90">
         <v>1</v>
       </c>
       <c r="L90" s="1">
-        <v>230689319.99906451</v>
+        <v>228405215.27494195</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -3866,28 +3866,28 @@
         <v>5</v>
       </c>
       <c r="E91">
-        <v>0.70234169801870605</v>
+        <v>0.70296935290935114</v>
       </c>
       <c r="F91">
-        <v>13.633109530509831</v>
+        <v>13.853448261883999</v>
       </c>
       <c r="G91">
-        <v>80.921087661450414</v>
+        <v>84.556421489243888</v>
       </c>
       <c r="H91">
-        <v>1.3991201990270603</v>
+        <v>1.2639067759174254</v>
       </c>
       <c r="I91">
-        <v>8.3046591843923014</v>
+        <v>6.214428353670499</v>
       </c>
       <c r="J91">
-        <v>5.2189240747579656E-2</v>
+        <v>4.9712856533544063E-2</v>
       </c>
       <c r="K91">
         <v>1</v>
       </c>
       <c r="L91" s="1">
-        <v>230341623.34717453</v>
+        <v>229455890.38133201</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
